--- a/SymbolSheetSecure.xlsx
+++ b/SymbolSheetSecure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanfit/CloudStation/School/latex/Symbollist-maintain/symbollist-maintain-excel/Symbollist-maintain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE1536F9-35A2-D84E-8EDC-6E9675709B45}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6886E7-F836-A34E-90B5-05E12637924E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
   </bookViews>
@@ -1029,8 +1029,8 @@
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1046,7 +1046,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="88900" y="63500"/>
-          <a:ext cx="8102600" cy="4546600"/>
+          <a:ext cx="8102600" cy="4965700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1674,7 +1674,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2653,7 +2653,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>

--- a/SymbolSheetSecure.xlsx
+++ b/SymbolSheetSecure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanfit/CloudStation/School/latex/Symbollist-maintain/symbollist-maintain-excel/Symbollist-maintain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6886E7-F836-A34E-90B5-05E12637924E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37EB8A-643B-1347-9C07-2F32426939C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -447,11 +447,6 @@
     <t>data on this sheet can be ignored</t>
   </si>
   <si>
-    <t>\begin{equation} 
-\text{Re}=\frac{{\rho_{\ell}} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
-\end{equation}</t>
-  </si>
-  <si>
     <t>\rho_\ell</t>
   </si>
   <si>
@@ -484,6 +479,11 @@
   </si>
   <si>
     <t>This document is designed for use up to 100 Symbol definitions, if more needed, drag the formulas above rows to more cells and lower this line</t>
+  </si>
+  <si>
+    <t>\begin{equation} 
+\text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
+\end{equation}</t>
   </si>
 </sst>
 </file>
@@ -1673,12 +1673,13 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -2638,7 +2639,7 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2653,7 +2654,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -2722,7 +2723,7 @@
         <v>59</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" s="7" t="str">
         <f t="shared" ref="D2:D33" si="0">IF(ISBLANK(C2)," ",CONCATENATE("{",C2,"}"))</f>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="E2" s="7">
         <f ca="1">IF(ISTEXT(C2),IF(D2=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D2,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>60</v>
@@ -2775,9 +2776,9 @@
         <f t="shared" si="0"/>
         <v>{u}</v>
       </c>
-      <c r="E3" s="7" t="e">
+      <c r="E3" s="7">
         <f ca="1">IF(ISTEXT(C3),IF(D3=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D3,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>#VALUE!</v>
+        <v>47</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>3</v>
@@ -2824,7 +2825,7 @@
       </c>
       <c r="E4" s="7">
         <f ca="1">IF(ISTEXT(C4),IF(D4=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D4,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>5</v>
@@ -2871,7 +2872,7 @@
       </c>
       <c r="E5" s="7">
         <f ca="1">IF(ISTEXT(C5),IF(D5=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D5,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>7</v>
@@ -2916,9 +2917,9 @@
         <f t="shared" si="0"/>
         <v>{Re}</v>
       </c>
-      <c r="E6" s="7" t="e">
+      <c r="E6" s="7" t="str">
         <f ca="1">IF(ISTEXT(C6),IF(D6=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D6,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>#VALUE!</v>
+        <v/>
       </c>
       <c r="F6" s="10" t="s">
         <v>27</v>
@@ -2963,9 +2964,9 @@
         <f t="shared" si="0"/>
         <v>{Ar}</v>
       </c>
-      <c r="E7" s="7" t="str">
+      <c r="E7" s="7" t="e">
         <f ca="1">IF(ISTEXT(C7),IF(D7=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D7,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
+        <v>#VALUE!</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>56</v>
@@ -3004,15 +3005,15 @@
         <v>45</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7" t="str">
         <f t="shared" si="0"/>
         <v>{\rho_b}</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="7" t="e">
         <f ca="1">IF(ISTEXT(C8),IF(D8=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D8,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>64</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>63</v>
@@ -3057,9 +3058,9 @@
         <f t="shared" si="0"/>
         <v>{g}</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="7" t="e">
         <f ca="1">IF(ISTEXT(C9),IF(D9=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D9,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>37</v>
+        <v>#VALUE!</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>67</v>
@@ -6095,7 +6096,7 @@
     </row>
     <row r="101" spans="1:13">
       <c r="A101" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B101" s="11"/>
     </row>
@@ -6111,8 +6112,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -6136,7 +6137,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D1" s="44"/>
       <c r="F1" s="32"/>
@@ -6149,14 +6150,14 @@
         <v>43</v>
       </c>
       <c r="C2" s="49" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D2" s="45"/>
       <c r="E2" s="30" t="s">
         <v>121</v>
       </c>
       <c r="F2" s="50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G2" s="31"/>
     </row>
@@ -6168,7 +6169,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="49" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D3" s="46"/>
       <c r="E3" s="25"/>
@@ -6186,7 +6187,7 @@
       </c>
       <c r="F4" s="27" t="str">
         <f ca="1">INDIRECT("B" &amp; F2+1)</f>
-        <v>{Ar}</v>
+        <v>{Re}</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -6238,7 +6239,9 @@
         <v>8</v>
       </c>
       <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
+      <c r="C9" s="49">
+        <v>1</v>
+      </c>
       <c r="D9" s="45"/>
       <c r="E9" s="36" t="str">
         <f ca="1">CONCATENATE(INDIRECT("Equations!$C$"&amp;Equations!$F$2+1),
@@ -6365,16 +6368,14 @@
 CHAR(13),
 CHAR(10),
 "\end{definitions}")</f>
-        <v>\begin{equation}
-\text{Ar} = \frac {{g}{L}^{3}{\rho_\ell}\left({\rho_b}-{\rho_\ell}\right)}{{\mu}^{2}}
-\equationunit{[\si{\nodimension}]}
+        <v>\begin{equation} 
+\text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
 \end{equation}_x000D_
 \begin{definitions}_x000D_
 \rho_\ell &amp; \Erholiquid \\_x000D_
+u &amp; \Eu \\_x000D_
 L &amp; \EL \\_x000D_
 \mu &amp; \Emu \\_x000D_
-\rho_b &amp; \Erhobody \\_x000D_
-g &amp; \Eg \\_x000D_
 \end{definitions}</v>
       </c>
       <c r="F9" s="37"/>
@@ -7386,7 +7387,7 @@
     <row r="3" spans="1:10">
       <c r="A3" t="str">
         <f t="array" aca="1" ref="A3" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M3))),"")</f>
-        <v>L &amp; \EL \\</v>
+        <v>u &amp; \Eu \\</v>
       </c>
       <c r="C3" t="s">
         <v>125</v>
@@ -7405,7 +7406,7 @@
     <row r="4" spans="1:10">
       <c r="A4" t="str">
         <f t="array" aca="1" ref="A4" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M4))),"")</f>
-        <v>\mu &amp; \Emu \\</v>
+        <v>L &amp; \EL \\</v>
       </c>
       <c r="F4" t="s">
         <v>79</v>
@@ -7418,7 +7419,7 @@
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" t="str">
         <f t="array" aca="1" ref="A5" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M5))),"")</f>
-        <v>\rho_b &amp; \Erhobody \\</v>
+        <v>\mu &amp; \Emu \\</v>
       </c>
       <c r="E5" t="s">
         <v>116</v>
@@ -7435,7 +7436,7 @@
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" t="str">
         <f t="array" aca="1" ref="A6" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M6))),"")</f>
-        <v>g &amp; \Eg \\</v>
+        <v/>
       </c>
       <c r="E6" t="s">
         <v>115</v>
@@ -7449,9 +7450,8 @@
       </c>
       <c r="I6" t="str">
         <f ca="1">INDIRECT("Equations!$C$"&amp;Equations!$F$2+1)</f>
-        <v>\begin{equation}
-\text{Ar} = \frac {{g}{L}^{3}{\rho_\ell}\left({\rho_b}-{\rho_\ell}\right)}{{\mu}^{2}}
-\equationunit{[\si{\nodimension}]}
+        <v>\begin{equation} 
+\text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
 \end{equation}</v>
       </c>
     </row>

--- a/SymbolSheetSecure.xlsx
+++ b/SymbolSheetSecure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanfit/CloudStation/School/latex/Symbollist-maintain/symbollist-maintain-excel/Symbollist-maintain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD37EB8A-643B-1347-9C07-2F32426939C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92943999-2AF4-2B47-B69E-BDBCD0767818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="3" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="4" r:id="rId1"/>
@@ -1153,7 +1153,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
-            <a:t>Version: 0.8 (20180929)</a:t>
+            <a:t>Version: 1.0 (20180930)</a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL" sz="1600"/>
         </a:p>
@@ -1673,7 +1673,7 @@
   <sheetPr codeName="Blad4"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
@@ -2654,7 +2654,7 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="G1" workbookViewId="0">
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
@@ -6112,8 +6112,8 @@
   <sheetPr codeName="Blad3"/>
   <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/SymbolSheetSecure.xlsx
+++ b/SymbolSheetSecure.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanfit/CloudStation/School/latex/Symbollist-maintain/symbollist-maintain-excel/Symbollist-maintain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92943999-2AF4-2B47-B69E-BDBCD0767818}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC784AC-FA3E-8B4F-9632-EA9B6FD4ADF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
   </bookViews>
@@ -23,7 +23,7 @@
     <definedName name="array">Symbols!$M$2:$M$1048576</definedName>
     <definedName name="code">Symbols!$D$2:$D$1048576</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="132">
   <si>
     <t>Symbol</t>
   </si>
@@ -192,12 +192,6 @@
     <t>Macro symbol description</t>
   </si>
   <si>
-    <t>rho</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
     <t>mu</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
   </si>
   <si>
     <t>Commandname equation parameter</t>
-  </si>
-  <si>
-    <t>Latin glossary entry name</t>
   </si>
   <si>
     <t>In equation # ?</t>
@@ -485,12 +476,31 @@
 \text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
 \end{equation}</t>
   </si>
+  <si>
+    <t>rhobody</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Latin glossary entry name 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for ordering alphabetically</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -535,6 +545,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -868,17 +885,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
@@ -913,7 +926,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
@@ -922,9 +934,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -935,9 +944,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -946,30 +952,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -994,6 +976,50 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1095,7 +1121,14 @@
         <a:p>
           <a:r>
             <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
-            <a:t>There is a more extensive description on https://github.com/johanf85/Symbollist-maintain-Excel </a:t>
+            <a:t>There is a more extensive description on </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
+            <a:t>https://github.com/johanf85/Symbollist-maintain-Excel </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1153,7 +1186,7 @@
         <a:p>
           <a:r>
             <a:rPr lang="nl-NL" sz="1600" baseline="0"/>
-            <a:t>Version: 1.0 (20180930)</a:t>
+            <a:t>Version: 1.1 (20190813)</a:t>
           </a:r>
           <a:endParaRPr lang="nl-NL" sz="1600"/>
         </a:p>
@@ -1674,12 +1707,11 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -1691,7 +1723,7 @@
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1717,13 +1749,13 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="17" t="s">
         <v>18</v>
       </c>
       <c r="D2" t="str">
@@ -1732,13 +1764,13 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="19">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="17" t="s">
         <v>19</v>
       </c>
       <c r="D3" t="str">
@@ -1747,13 +1779,13 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="D4" t="str">
@@ -1762,13 +1794,13 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D5" t="str">
@@ -1777,14 +1809,14 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="19">
-      <c r="A6" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="19" t="s">
+      <c r="A6" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>52</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="D6" t="str">
         <f t="shared" si="0"/>
@@ -1792,854 +1824,854 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
       <c r="D7" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
       <c r="D8" t="str">
         <f t="shared" ref="D8:D71" si="1">IF(ISBLANK(A8)," ",CONCATENATE("\DeclareSIUnit[]",B8,"{",C8,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
       <c r="D9" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="18"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
       <c r="D10" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="18"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
       <c r="D11" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="18"/>
-      <c r="B12" s="18"/>
-      <c r="C12" s="18"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
       <c r="D12" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="18"/>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
       <c r="D13" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
       <c r="D14" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18"/>
-      <c r="B15" s="18"/>
-      <c r="C15" s="18"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="18"/>
+      <c r="A16" s="16"/>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
       <c r="D16" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
       <c r="D17" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
       <c r="D19" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
       <c r="D20" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
       <c r="D21" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="18"/>
-      <c r="C22" s="18"/>
+      <c r="A22" s="16"/>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
       <c r="D22" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="18"/>
-      <c r="C23" s="18"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
       <c r="D23" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
       <c r="D24" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="18"/>
-      <c r="C25" s="18"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
       <c r="D25" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18"/>
-      <c r="B26" s="18"/>
-      <c r="C26" s="18"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
       <c r="D26" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="18"/>
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
       <c r="D27" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
+      <c r="A28" s="16"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="16"/>
       <c r="D28" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
+      <c r="A29" s="16"/>
+      <c r="B29" s="16"/>
+      <c r="C29" s="16"/>
       <c r="D29" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18"/>
-      <c r="B30" s="18"/>
-      <c r="C30" s="18"/>
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
       <c r="D30" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="18"/>
+      <c r="A31" s="16"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="16"/>
       <c r="D31" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
+      <c r="A32" s="16"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
       <c r="D32" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+      <c r="C33" s="16"/>
       <c r="D33" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
+      <c r="A34" s="16"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
       <c r="D34" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
+      <c r="A35" s="16"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
       <c r="D35" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
       <c r="D36" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
+      <c r="A37" s="16"/>
+      <c r="B37" s="16"/>
+      <c r="C37" s="16"/>
       <c r="D37" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
+      <c r="A38" s="16"/>
+      <c r="B38" s="16"/>
+      <c r="C38" s="16"/>
       <c r="D38" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+      <c r="C39" s="16"/>
       <c r="D39" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="18"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
+      <c r="A40" s="16"/>
+      <c r="B40" s="16"/>
+      <c r="C40" s="16"/>
       <c r="D40" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="18"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
       <c r="D41" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
       <c r="D42" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
+      <c r="A43" s="16"/>
+      <c r="B43" s="16"/>
+      <c r="C43" s="16"/>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
+      <c r="A44" s="16"/>
+      <c r="B44" s="16"/>
+      <c r="C44" s="16"/>
       <c r="D44" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="18"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
       <c r="D45" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="18"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
       <c r="D46" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="18"/>
-      <c r="B47" s="18"/>
-      <c r="C47" s="18"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="16"/>
+      <c r="C47" s="16"/>
       <c r="D47" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="18"/>
-      <c r="B48" s="18"/>
-      <c r="C48" s="18"/>
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+      <c r="C48" s="16"/>
       <c r="D48" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18"/>
-      <c r="B49" s="18"/>
-      <c r="C49" s="18"/>
+      <c r="A49" s="16"/>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
       <c r="D49" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18"/>
-      <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="16"/>
+      <c r="C50" s="16"/>
       <c r="D50" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="18"/>
-      <c r="B51" s="18"/>
-      <c r="C51" s="18"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+      <c r="C51" s="16"/>
       <c r="D51" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="18"/>
-      <c r="B52" s="18"/>
-      <c r="C52" s="18"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="16"/>
+      <c r="C52" s="16"/>
       <c r="D52" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18"/>
-      <c r="B53" s="18"/>
-      <c r="C53" s="18"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="16"/>
+      <c r="C53" s="16"/>
       <c r="D53" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="18"/>
-      <c r="B54" s="18"/>
-      <c r="C54" s="18"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+      <c r="C54" s="16"/>
       <c r="D54" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="18"/>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="16"/>
+      <c r="C55" s="16"/>
       <c r="D55" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="16"/>
+      <c r="C56" s="16"/>
       <c r="D56" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="18"/>
-      <c r="B57" s="18"/>
-      <c r="C57" s="18"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+      <c r="C57" s="16"/>
       <c r="D57" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="18"/>
-      <c r="B58" s="18"/>
-      <c r="C58" s="18"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="16"/>
+      <c r="C58" s="16"/>
       <c r="D58" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18"/>
-      <c r="B59" s="18"/>
-      <c r="C59" s="18"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="16"/>
+      <c r="C59" s="16"/>
       <c r="D59" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18"/>
-      <c r="B60" s="18"/>
-      <c r="C60" s="18"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+      <c r="C60" s="16"/>
       <c r="D60" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18"/>
-      <c r="B61" s="18"/>
-      <c r="C61" s="18"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="16"/>
+      <c r="C61" s="16"/>
       <c r="D61" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18"/>
-      <c r="B62" s="18"/>
-      <c r="C62" s="18"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="16"/>
+      <c r="C62" s="16"/>
       <c r="D62" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18"/>
-      <c r="B63" s="18"/>
-      <c r="C63" s="18"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="16"/>
       <c r="D63" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18"/>
-      <c r="B64" s="18"/>
-      <c r="C64" s="18"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="16"/>
+      <c r="C64" s="16"/>
       <c r="D64" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18"/>
-      <c r="B65" s="18"/>
-      <c r="C65" s="18"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="16"/>
+      <c r="C65" s="16"/>
       <c r="D65" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18"/>
-      <c r="C66" s="18"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+      <c r="C66" s="16"/>
       <c r="D66" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18"/>
-      <c r="C67" s="18"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="16"/>
+      <c r="C67" s="16"/>
       <c r="D67" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18"/>
-      <c r="C68" s="18"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="16"/>
+      <c r="C68" s="16"/>
       <c r="D68" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18"/>
-      <c r="C69" s="18"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+      <c r="C69" s="16"/>
       <c r="D69" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18"/>
-      <c r="B70" s="18"/>
-      <c r="C70" s="18"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="16"/>
+      <c r="C70" s="16"/>
       <c r="D70" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18"/>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="16"/>
+      <c r="C71" s="16"/>
       <c r="D71" t="str">
         <f t="shared" si="1"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18"/>
-      <c r="B72" s="18"/>
-      <c r="C72" s="18"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+      <c r="C72" s="16"/>
       <c r="D72" t="str">
         <f t="shared" ref="D72:D100" si="2">IF(ISBLANK(A72)," ",CONCATENATE("\DeclareSIUnit[]",B72,"{",C72,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="18"/>
-      <c r="B73" s="18"/>
-      <c r="C73" s="18"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="16"/>
+      <c r="C73" s="16"/>
       <c r="D73" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="18"/>
-      <c r="B74" s="18"/>
-      <c r="C74" s="18"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="16"/>
+      <c r="C74" s="16"/>
       <c r="D74" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18"/>
-      <c r="B75" s="18"/>
-      <c r="C75" s="18"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+      <c r="C75" s="16"/>
       <c r="D75" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18"/>
-      <c r="B76" s="18"/>
-      <c r="C76" s="18"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="16"/>
+      <c r="C76" s="16"/>
       <c r="D76" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="18"/>
-      <c r="B77" s="18"/>
-      <c r="C77" s="18"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="16"/>
+      <c r="C77" s="16"/>
       <c r="D77" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="18"/>
-      <c r="B78" s="18"/>
-      <c r="C78" s="18"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="16"/>
+      <c r="C78" s="16"/>
       <c r="D78" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="18"/>
-      <c r="B79" s="18"/>
-      <c r="C79" s="18"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+      <c r="C79" s="16"/>
       <c r="D79" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="18"/>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="16"/>
+      <c r="C80" s="16"/>
       <c r="D80" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="16"/>
+      <c r="C81" s="16"/>
       <c r="D81" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="18"/>
-      <c r="B82" s="18"/>
-      <c r="C82" s="18"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="16"/>
       <c r="D82" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="18"/>
-      <c r="B83" s="18"/>
-      <c r="C83" s="18"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="16"/>
+      <c r="C83" s="16"/>
       <c r="D83" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="18"/>
-      <c r="B84" s="18"/>
-      <c r="C84" s="18"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="16"/>
+      <c r="C84" s="16"/>
       <c r="D84" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="18"/>
-      <c r="B85" s="18"/>
-      <c r="C85" s="18"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+      <c r="C85" s="16"/>
       <c r="D85" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="18"/>
-      <c r="B86" s="18"/>
-      <c r="C86" s="18"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
       <c r="D86" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="18"/>
-      <c r="B87" s="18"/>
-      <c r="C87" s="18"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="16"/>
+      <c r="C87" s="16"/>
       <c r="D87" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="18"/>
-      <c r="B88" s="18"/>
-      <c r="C88" s="18"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+      <c r="C88" s="16"/>
       <c r="D88" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="18"/>
-      <c r="B89" s="18"/>
-      <c r="C89" s="18"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="16"/>
+      <c r="C89" s="16"/>
       <c r="D89" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="18"/>
-      <c r="B90" s="18"/>
-      <c r="C90" s="18"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="16"/>
+      <c r="C90" s="16"/>
       <c r="D90" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="18"/>
-      <c r="B91" s="18"/>
-      <c r="C91" s="18"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+      <c r="C91" s="16"/>
       <c r="D91" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="18"/>
-      <c r="B92" s="18"/>
-      <c r="C92" s="18"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="16"/>
+      <c r="C92" s="16"/>
       <c r="D92" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="18"/>
-      <c r="B93" s="18"/>
-      <c r="C93" s="18"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="16"/>
+      <c r="C93" s="16"/>
       <c r="D93" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="18"/>
-      <c r="B94" s="18"/>
-      <c r="C94" s="18"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+      <c r="C94" s="16"/>
       <c r="D94" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="18"/>
-      <c r="B95" s="18"/>
-      <c r="C95" s="18"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="16"/>
+      <c r="C95" s="16"/>
       <c r="D95" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="18"/>
-      <c r="B96" s="18"/>
-      <c r="C96" s="18"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
       <c r="D96" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="18"/>
-      <c r="B97" s="18"/>
-      <c r="C97" s="18"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+      <c r="C97" s="16"/>
       <c r="D97" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="18"/>
-      <c r="B98" s="18"/>
-      <c r="C98" s="18"/>
+      <c r="A98" s="16"/>
+      <c r="B98" s="16"/>
+      <c r="C98" s="16"/>
       <c r="D98" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="18"/>
-      <c r="B99" s="18"/>
-      <c r="C99" s="18"/>
+      <c r="A99" s="16"/>
+      <c r="B99" s="16"/>
+      <c r="C99" s="16"/>
       <c r="D99" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="100" spans="1:4" s="2" customFormat="1">
-      <c r="A100" s="22"/>
-      <c r="B100" s="22"/>
-      <c r="C100" s="22"/>
+      <c r="A100" s="19"/>
+      <c r="B100" s="19"/>
+      <c r="C100" s="19"/>
       <c r="D100" s="2" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="11" t="s">
-        <v>130</v>
+      <c r="A101" s="9" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2654,3454 +2686,3457 @@
   <sheetPr codeName="Blad1"/>
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="24.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="18.1640625" style="5" customWidth="1"/>
-    <col min="4" max="5" width="18.1640625" style="7" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="31.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="60.6640625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" style="5" customWidth="1"/>
-    <col min="10" max="10" width="61.83203125" style="4" customWidth="1"/>
-    <col min="11" max="11" width="113.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="109.6640625" style="4" customWidth="1"/>
-    <col min="13" max="13" width="30" style="4" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="24.33203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="4" customWidth="1"/>
+    <col min="4" max="5" width="18.1640625" style="5" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="31.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="60.6640625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="23.33203125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="61.83203125" style="3" customWidth="1"/>
+    <col min="11" max="11" width="113.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="109.6640625" style="3" customWidth="1"/>
+    <col min="13" max="13" width="30" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="4" customFormat="1">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:13" s="50" customFormat="1" ht="35" customHeight="1">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="51" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="49" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f t="shared" ref="D2:D33" si="0">IF(ISBLANK(C2)," ",CONCATENATE("{",C2,"}"))</f>
+        <v>{Ar}</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C2),IF(D2=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D2,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="3" t="str">
+        <f t="shared" ref="J2:J33" si="1">IF(ISBLANK(C2)," ",CONCATENATE("\newcommand{",F2,"}{",H2,"}"))</f>
+        <v>\newcommand{\Dar}{Archimedes number}</v>
+      </c>
+      <c r="K2" s="3" t="str">
+        <f t="shared" ref="K2:K33" si="2">IF(ISBLANK(C2)," ",CONCATENATE("\newglossaryentry{",B2,"}{name={$",C2,"$},description={",F2,"},unit={\si{\",I2,"}},type=symbolslist,sort=","1}"))</f>
+        <v>\newglossaryentry{Ar}{name={$Ar$},description={\Dar},unit={\si{\nodimension}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L2" s="3" t="str">
+        <f t="shared" ref="L2:L33" si="3">IF(ISBLANK(C2)," ",CONCATENATE("\newcommand{",G2,"}{\parbox[t]{","\widtheqparameter","}","{",F2,"}\hspace{","\widtheqwhitespace","}[\si{","\",I2,"}]}"))</f>
+        <v>\newcommand{\Ear}{\parbox[t]{\widtheqparameter}{\Dar}\hspace{\widtheqwhitespace}[\si{\nodimension}]}</v>
+      </c>
+      <c r="M2" s="3" t="str">
+        <f t="shared" ref="M2:M33" si="4">IF(ISBLANK(C2)," ",CONCATENATE(C2," &amp; ",G2," \\"))</f>
+        <v>Ar &amp; \Ear \\</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{g}</v>
+      </c>
+      <c r="E3" s="5">
+        <f ca="1">IF(ISTEXT(C3),IF(D3=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D3,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>37</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>\newcommand{\Dg}{gravitational acceleration}</v>
+      </c>
+      <c r="K3" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>\newglossaryentry{g}{name={$g$},description={\Dg},unit={\si{\mperstwo}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L3" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>\newcommand{\Eg}{\parbox[t]{\widtheqparameter}{\Dg}\hspace{\widtheqwhitespace}[\si{\mperstwo}]}</v>
+      </c>
+      <c r="M3" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>g &amp; \Eg \\</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{L}</v>
+      </c>
+      <c r="E4" s="5">
+        <f ca="1">IF(ISTEXT(C4),IF(D4=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D4,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>40</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="J4" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>\newcommand{\DL}{characteristic linear dimension}</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>\newglossaryentry{L}{name={$L$},description={\DL},unit={\si{\meter}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L4" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>\newcommand{\EL}{\parbox[t]{\widtheqparameter}{\DL}\hspace{\widtheqwhitespace}[\si{\meter}]}</v>
+      </c>
+      <c r="M4" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>L &amp; \EL \\</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{\mu}</v>
+      </c>
+      <c r="E5" s="5">
+        <f ca="1">IF(ISTEXT(C5),IF(D5=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D5,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>93</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>\newcommand{\Dmu}{dynamic viscosity of the fluid}</v>
+      </c>
+      <c r="K5" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>\newglossaryentry{mu}{name={$\mu$},description={\Dmu},unit={\si{\patimess}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L5" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>\newcommand{\Emu}{\parbox[t]{\widtheqparameter}{\Dmu}\hspace{\widtheqwhitespace}[\si{\patimess}]}</v>
+      </c>
+      <c r="M5" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>\mu &amp; \Emu \\</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{Re}</v>
+      </c>
+      <c r="E6" s="5" t="e">
+        <f ca="1">IF(ISTEXT(C6),IF(D6=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D6,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>\newcommand{\Dre}{Reynolds number,  dimensionless quantity}</v>
+      </c>
+      <c r="K6" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>\newglossaryentry{Re}{name={$Re$},description={\Dre},unit={\si{\nodimension}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L6" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>\newcommand{\Ere}{\parbox[t]{\widtheqparameter}{\Dre}\hspace{\widtheqwhitespace}[\si{\nodimension}]}</v>
+      </c>
+      <c r="M6" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>Re &amp; \Ere \\</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{\rho_b}</v>
+      </c>
+      <c r="E7" s="5">
+        <f ca="1">IF(ISTEXT(C7),IF(D7=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D7,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>64</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>\newcommand{\Drhobody}{density of the body}</v>
+      </c>
+      <c r="K7" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>\newglossaryentry{rhobody}{name={$\rho_b$},description={\Drhobody},unit={\si{\kgpermthree}},type=symbolslist,sort=1}</v>
+      </c>
+      <c r="L7" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>\newcommand{\Erhobody}{\parbox[t]{\widtheqparameter}{\Drhobody}\hspace{\widtheqwhitespace}[\si{\kgpermthree}]}</v>
+      </c>
+      <c r="M7" s="3" t="str">
+        <f t="shared" si="4"/>
+        <v>\rho_b &amp; \Erhobody \\</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="B8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>{\rho_\ell}</v>
+      </c>
+      <c r="E8" s="5">
+        <f ca="1">IF(ISTEXT(C8),IF(D8=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D8,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>47</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="7" t="str">
-        <f t="shared" ref="D2:D33" si="0">IF(ISBLANK(C2)," ",CONCATENATE("{",C2,"}"))</f>
-        <v>{\rho_\ell}</v>
-      </c>
-      <c r="E2" s="7">
-        <f ca="1">IF(ISTEXT(C2),IF(D2=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D2,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>35</v>
-      </c>
-      <c r="F2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" s="10" t="s">
+      <c r="H8" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="10" t="s">
+      <c r="I8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="4" t="str">
-        <f t="shared" ref="J2:J33" si="1">IF(ISBLANK(C2)," ",CONCATENATE("\newcommand{",F2,"}{",H2,"}"))</f>
+      <c r="J8" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>\newcommand{\Drholiquid}{density of the fluid}</v>
       </c>
-      <c r="K2" s="4" t="str">
-        <f t="shared" ref="K2:K33" si="2">IF(ISBLANK(C2)," ",CONCATENATE("\newglossaryentry{",B2,"}{name={$",C2,"$},description={",F2,"},unit={\si{\",I2,"}},type=symbolslist,sort=","1}"))</f>
+      <c r="K8" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>\newglossaryentry{rholiquid}{name={$\rho_\ell$},description={\Drholiquid},unit={\si{\kgpermthree}},type=symbolslist,sort=1}</v>
       </c>
-      <c r="L2" s="4" t="str">
-        <f t="shared" ref="L2:L33" si="3">IF(ISBLANK(C2)," ",CONCATENATE("\newcommand{",G2,"}{\parbox[t]{","\widtheqparameter","}","{",F2,"}\hspace{","\widtheqwhitespace","}[\si{","\",I2,"}]}"))</f>
+      <c r="L8" s="3" t="str">
+        <f t="shared" si="3"/>
         <v>\newcommand{\Erholiquid}{\parbox[t]{\widtheqparameter}{\Drholiquid}\hspace{\widtheqwhitespace}[\si{\kgpermthree}]}</v>
       </c>
-      <c r="M2" s="4" t="str">
-        <f t="shared" ref="M2:M33" si="4">IF(ISBLANK(C2)," ",CONCATENATE(C2," &amp; ",G2," \\"))</f>
+      <c r="M8" s="3" t="str">
+        <f t="shared" si="4"/>
         <v>\rho_\ell &amp; \Erholiquid \\</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="10" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C9" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="7" t="str">
+      <c r="D9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>{u}</v>
       </c>
-      <c r="E3" s="7">
-        <f ca="1">IF(ISTEXT(C3),IF(D3=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D3,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>47</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E9" s="5" t="e">
+        <f ca="1">IF(ISTEXT(C9),IF(D9=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D9,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H9" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="str">
+      <c r="J9" s="3" t="str">
         <f t="shared" si="1"/>
         <v>\newcommand{\Du}{velocity of the fluid with respect to the object. This is a second line}</v>
       </c>
-      <c r="K3" s="4" t="str">
+      <c r="K9" s="3" t="str">
         <f t="shared" si="2"/>
         <v>\newglossaryentry{u}{name={$u$},description={\Du},unit={\si{\mpers}},type=symbolslist,sort=1}</v>
       </c>
-      <c r="L3" s="4" t="str">
+      <c r="L9" s="3" t="str">
         <f t="shared" si="3"/>
         <v>\newcommand{\Eu}{\parbox[t]{\widtheqparameter}{\Du}\hspace{\widtheqwhitespace}[\si{\mpers}]}</v>
       </c>
-      <c r="M3" s="4" t="str">
+      <c r="M9" s="3" t="str">
         <f t="shared" si="4"/>
         <v>u &amp; \Eu \\</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="7" t="str">
+    <row r="10" spans="1:13">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{L}</v>
-      </c>
-      <c r="E4" s="7">
-        <f ca="1">IF(ISTEXT(C4),IF(D4=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D4,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>50</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\DL}{characteristic linear dimension}</v>
-      </c>
-      <c r="K4" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E10" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C10),IF(D10=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D10,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{l}{name={$L$},description={\DL},unit={\si{\meter}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L4" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L10" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\EL}{\parbox[t]{\widtheqparameter}{\DL}\hspace{\widtheqwhitespace}[\si{\meter}]}</v>
-      </c>
-      <c r="M4" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M10" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>L &amp; \EL \\</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{\mu}</v>
-      </c>
-      <c r="E5" s="7">
-        <f ca="1">IF(ISTEXT(C5),IF(D5=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D5,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>54</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\Dmu}{dynamic viscosity of the fluid}</v>
-      </c>
-      <c r="K5" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E11" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C11),IF(D11=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D11,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{mu}{name={$\mu$},description={\Dmu},unit={\si{\patimess}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L5" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L11" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\Emu}{\parbox[t]{\widtheqparameter}{\Dmu}\hspace{\widtheqwhitespace}[\si{\patimess}]}</v>
-      </c>
-      <c r="M5" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M11" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>\mu &amp; \Emu \\</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{Re}</v>
-      </c>
-      <c r="E6" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C6),IF(D6=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D6,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\Dre}{Reynolds number,  dimensionless quantity}</v>
-      </c>
-      <c r="K6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E12" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C12),IF(D12=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D12,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{Re}{name={$Re$},description={\Dre},unit={\si{\nodimension}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L12" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\Ere}{\parbox[t]{\widtheqparameter}{\Dre}\hspace{\widtheqwhitespace}[\si{\nodimension}]}</v>
-      </c>
-      <c r="M6" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M12" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Re &amp; \Ere \\</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{Ar}</v>
-      </c>
-      <c r="E7" s="7" t="e">
-        <f ca="1">IF(ISTEXT(C7),IF(D7=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D7,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\Dar}{Archimedes number}</v>
-      </c>
-      <c r="K7" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E13" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C13),IF(D13=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D13,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{Ar}{name={$Ar$},description={\Dar},unit={\si{\nodimension}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L7" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L13" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\Ear}{\parbox[t]{\widtheqparameter}{\Dar}\hspace{\widtheqwhitespace}[\si{\nodimension}]}</v>
-      </c>
-      <c r="M7" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M13" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>Ar &amp; \Ear \\</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="D8" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{\rho_b}</v>
-      </c>
-      <c r="E8" s="7" t="e">
-        <f ca="1">IF(ISTEXT(C8),IF(D8=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D8,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\Drhobody}{density of the body}</v>
-      </c>
-      <c r="K8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E14" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C14),IF(D14=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D14,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{rho}{name={$\rho_b$},description={\Drhobody},unit={\si{\kgpermthree}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L14" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\Erhobody}{\parbox[t]{\widtheqparameter}{\Drhobody}\hspace{\widtheqwhitespace}[\si{\kgpermthree}]}</v>
-      </c>
-      <c r="M8" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M14" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>\rho_b &amp; \Erhobody \\</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>{g}</v>
-      </c>
-      <c r="E9" s="7" t="e">
-        <f ca="1">IF(ISTEXT(C9),IF(D9=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D9,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v>\newcommand{\Dg}{gravitational acceleration}</v>
-      </c>
-      <c r="K9" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C15),IF(D15=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D15,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>\newglossaryentry{g}{name={$g$},description={\Dg},unit={\si{\mperstwo}},type=symbolslist,sort=1}</v>
-      </c>
-      <c r="L9" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="L15" s="3" t="str">
         <f t="shared" si="3"/>
-        <v>\newcommand{\Eg}{\parbox[t]{\widtheqparameter}{\Dg}\hspace{\widtheqwhitespace}[\si{\mperstwo}]}</v>
-      </c>
-      <c r="M9" s="4" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="M15" s="3" t="str">
         <f t="shared" si="4"/>
-        <v>g &amp; \Eg \\</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E10" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C10),IF(D10=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D10,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K10" s="4" t="str">
+      <c r="E16" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C16),IF(D16=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D16,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K16" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L10" s="4" t="str">
+      <c r="L16" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M10" s="4" t="str">
+      <c r="M16" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="7" t="str">
+    <row r="17" spans="1:13">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E11" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C11),IF(D11=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D11,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K11" s="4" t="str">
+      <c r="E17" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C17),IF(D17=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D17,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K17" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L11" s="4" t="str">
+      <c r="L17" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M11" s="4" t="str">
+      <c r="M17" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7" t="str">
+    <row r="18" spans="1:13">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E12" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C12),IF(D12=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D12,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K12" s="4" t="str">
+      <c r="E18" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C18),IF(D18=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D18,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K18" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L12" s="4" t="str">
+      <c r="L18" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M12" s="4" t="str">
+      <c r="M18" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="7" t="str">
+    <row r="19" spans="1:13">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E13" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C13),IF(D13=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D13,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K13" s="4" t="str">
+      <c r="E19" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C19),IF(D19=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D19,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K19" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L13" s="4" t="str">
+      <c r="L19" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M13" s="4" t="str">
+      <c r="M19" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="7" t="str">
+    <row r="20" spans="1:13">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E14" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C14),IF(D14=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D14,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K14" s="4" t="str">
+      <c r="E20" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C20),IF(D20=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D20,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K20" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L14" s="4" t="str">
+      <c r="L20" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M14" s="4" t="str">
+      <c r="M20" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7" t="str">
+    <row r="21" spans="1:13">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E15" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C15),IF(D15=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D15,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K15" s="4" t="str">
+      <c r="E21" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C21),IF(D21=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D21,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K21" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L15" s="4" t="str">
+      <c r="L21" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M15" s="4" t="str">
+      <c r="M21" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="7" t="str">
+    <row r="22" spans="1:13">
+      <c r="A22" s="8"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E16" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C16),IF(D16=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D16,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K16" s="4" t="str">
+      <c r="E22" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C22),IF(D22=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D22,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K22" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L16" s="4" t="str">
+      <c r="L22" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M16" s="4" t="str">
+      <c r="M22" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="17" spans="1:13">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7" t="str">
+    <row r="23" spans="1:13">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E17" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C17),IF(D17=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D17,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K17" s="4" t="str">
+      <c r="E23" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C23),IF(D23=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D23,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K23" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L17" s="4" t="str">
+      <c r="L23" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M17" s="4" t="str">
+      <c r="M23" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="18" spans="1:13">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="7" t="str">
+    <row r="24" spans="1:13">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E18" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C18),IF(D18=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D18,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K18" s="4" t="str">
+      <c r="E24" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C24),IF(D24=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D24,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F24" s="8"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="8"/>
+      <c r="J24" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K24" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L18" s="4" t="str">
+      <c r="L24" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M18" s="4" t="str">
+      <c r="M24" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="7" t="str">
+    <row r="25" spans="1:13">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E19" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C19),IF(D19=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D19,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K19" s="4" t="str">
+      <c r="E25" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C25),IF(D25=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D25,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K25" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L19" s="4" t="str">
+      <c r="L25" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M19" s="4" t="str">
+      <c r="M25" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="7" t="str">
+    <row r="26" spans="1:13">
+      <c r="A26" s="8"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E20" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C20),IF(D20=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D20,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K20" s="4" t="str">
+      <c r="E26" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C26),IF(D26=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D26,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K26" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L20" s="4" t="str">
+      <c r="L26" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M20" s="4" t="str">
+      <c r="M26" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="7" t="str">
+    <row r="27" spans="1:13">
+      <c r="A27" s="8"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E21" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C21),IF(D21=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D21,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K21" s="4" t="str">
+      <c r="E27" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C27),IF(D27=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D27,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="8"/>
+      <c r="J27" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K27" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L21" s="4" t="str">
+      <c r="L27" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M21" s="4" t="str">
+      <c r="M27" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="7" t="str">
+    <row r="28" spans="1:13">
+      <c r="A28" s="8"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E22" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C22),IF(D22=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D22,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K22" s="4" t="str">
+      <c r="E28" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C28),IF(D28=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D28,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
+      <c r="J28" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K28" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L22" s="4" t="str">
+      <c r="L28" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M22" s="4" t="str">
+      <c r="M28" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="23" spans="1:13">
-      <c r="A23" s="10"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7" t="str">
+    <row r="29" spans="1:13">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E23" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C23),IF(D23=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D23,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K23" s="4" t="str">
+      <c r="E29" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C29),IF(D29=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D29,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K29" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L23" s="4" t="str">
+      <c r="L29" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M23" s="4" t="str">
+      <c r="M29" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="24" spans="1:13">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="7" t="str">
+    <row r="30" spans="1:13">
+      <c r="A30" s="8"/>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E24" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C24),IF(D24=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D24,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K24" s="4" t="str">
+      <c r="E30" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C30),IF(D30=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D30,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K30" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L24" s="4" t="str">
+      <c r="L30" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M24" s="4" t="str">
+      <c r="M30" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="25" spans="1:13">
-      <c r="A25" s="10"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="7" t="str">
+    <row r="31" spans="1:13">
+      <c r="A31" s="8"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E25" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C25),IF(D25=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D25,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K25" s="4" t="str">
+      <c r="E31" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C31),IF(D31=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D31,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="J31" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K31" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L25" s="4" t="str">
+      <c r="L31" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M25" s="4" t="str">
+      <c r="M31" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="26" spans="1:13">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="7" t="str">
+    <row r="32" spans="1:13">
+      <c r="A32" s="8"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E26" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C26),IF(D26=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D26,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K26" s="4" t="str">
+      <c r="E32" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C32),IF(D32=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D32,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="J32" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K32" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L26" s="4" t="str">
+      <c r="L32" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M26" s="4" t="str">
+      <c r="M32" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="27" spans="1:13">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="7" t="str">
+    <row r="33" spans="1:13">
+      <c r="A33" s="8"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="5" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E27" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C27),IF(D27=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D27,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K27" s="4" t="str">
+      <c r="E33" s="5" t="str">
+        <f ca="1">IF(ISTEXT(C33),IF(D33=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D33,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
+        <v/>
+      </c>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
+      <c r="J33" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+      <c r="K33" s="3" t="str">
         <f t="shared" si="2"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L27" s="4" t="str">
+      <c r="L33" s="3" t="str">
         <f t="shared" si="3"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M27" s="4" t="str">
+      <c r="M33" s="3" t="str">
         <f t="shared" si="4"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="28" spans="1:13">
-      <c r="A28" s="10"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E28" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C28),IF(D28=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D28,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K28" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L28" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M28" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E29" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C29),IF(D29=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D29,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K29" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L29" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M29" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E30" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C30),IF(D30=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D30,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K30" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L30" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M30" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E31" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C31),IF(D31=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D31,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K31" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L31" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M31" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E32" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C32),IF(D32=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D32,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K32" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L32" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M32" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
-      <c r="A33" s="10"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="E33" s="7" t="str">
-        <f ca="1">IF(ISTEXT(C33),IF(D33=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D33,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
-        <v/>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="4" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="K33" s="4" t="str">
-        <f t="shared" si="2"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="L33" s="4" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve"> </v>
-      </c>
-      <c r="M33" s="4" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
     <row r="34" spans="1:13">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="7" t="str">
+      <c r="A34" s="8"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="5" t="str">
         <f t="shared" ref="D34:D65" si="5">IF(ISBLANK(C34)," ",CONCATENATE("{",C34,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E34" s="7" t="str">
+      <c r="E34" s="5" t="str">
         <f ca="1">IF(ISTEXT(C34),IF(D34=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D34,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="4" t="str">
+      <c r="F34" s="8"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="8"/>
+      <c r="J34" s="3" t="str">
         <f t="shared" ref="J34:J65" si="6">IF(ISBLANK(C34)," ",CONCATENATE("\newcommand{",F34,"}{",H34,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K34" s="4" t="str">
+      <c r="K34" s="3" t="str">
         <f t="shared" ref="K34:K65" si="7">IF(ISBLANK(C34)," ",CONCATENATE("\newglossaryentry{",B34,"}{name={$",C34,"$},description={",F34,"},unit={\si{\",I34,"}},type=symbolslist,sort=","1}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L34" s="4" t="str">
+      <c r="L34" s="3" t="str">
         <f t="shared" ref="L34:L65" si="8">IF(ISBLANK(C34)," ",CONCATENATE("\newcommand{",G34,"}{\parbox[t]{","\widtheqparameter","}","{",F34,"}\hspace{","\widtheqwhitespace","}[\si{","\",I34,"}]}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M34" s="4" t="str">
+      <c r="M34" s="3" t="str">
         <f t="shared" ref="M34:M65" si="9">IF(ISBLANK(C34)," ",CONCATENATE(C34," &amp; ",G34," \\"))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="35" spans="1:13">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="7" t="str">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E35" s="7" t="str">
+      <c r="E35" s="5" t="str">
         <f ca="1">IF(ISTEXT(C35),IF(D35=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D35,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="4" t="str">
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K35" s="4" t="str">
+      <c r="K35" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L35" s="4" t="str">
+      <c r="L35" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M35" s="4" t="str">
+      <c r="M35" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="36" spans="1:13">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="7" t="str">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E36" s="7" t="str">
+      <c r="E36" s="5" t="str">
         <f ca="1">IF(ISTEXT(C36),IF(D36=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D36,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="4" t="str">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K36" s="4" t="str">
+      <c r="K36" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L36" s="4" t="str">
+      <c r="L36" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M36" s="4" t="str">
+      <c r="M36" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="37" spans="1:13">
-      <c r="A37" s="10"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="7" t="str">
+      <c r="A37" s="8"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E37" s="7" t="str">
+      <c r="E37" s="5" t="str">
         <f ca="1">IF(ISTEXT(C37),IF(D37=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D37,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="4" t="str">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="J37" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K37" s="4" t="str">
+      <c r="K37" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L37" s="4" t="str">
+      <c r="L37" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M37" s="4" t="str">
+      <c r="M37" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="38" spans="1:13">
-      <c r="A38" s="10"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="7" t="str">
+      <c r="A38" s="8"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="8"/>
+      <c r="D38" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E38" s="7" t="str">
+      <c r="E38" s="5" t="str">
         <f ca="1">IF(ISTEXT(C38),IF(D38=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D38,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="4" t="str">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
+      <c r="J38" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K38" s="4" t="str">
+      <c r="K38" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L38" s="4" t="str">
+      <c r="L38" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M38" s="4" t="str">
+      <c r="M38" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="39" spans="1:13">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="7" t="str">
+      <c r="A39" s="8"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E39" s="7" t="str">
+      <c r="E39" s="5" t="str">
         <f ca="1">IF(ISTEXT(C39),IF(D39=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D39,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="4" t="str">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="8"/>
+      <c r="J39" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K39" s="4" t="str">
+      <c r="K39" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L39" s="4" t="str">
+      <c r="L39" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M39" s="4" t="str">
+      <c r="M39" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="40" spans="1:13">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="7" t="str">
+      <c r="A40" s="8"/>
+      <c r="B40" s="8"/>
+      <c r="C40" s="8"/>
+      <c r="D40" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E40" s="7" t="str">
+      <c r="E40" s="5" t="str">
         <f ca="1">IF(ISTEXT(C40),IF(D40=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D40,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="4" t="str">
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="8"/>
+      <c r="J40" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K40" s="4" t="str">
+      <c r="K40" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L40" s="4" t="str">
+      <c r="L40" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M40" s="4" t="str">
+      <c r="M40" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="41" spans="1:13">
-      <c r="A41" s="10"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="7" t="str">
+      <c r="A41" s="8"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E41" s="7" t="str">
+      <c r="E41" s="5" t="str">
         <f ca="1">IF(ISTEXT(C41),IF(D41=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D41,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="4" t="str">
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K41" s="4" t="str">
+      <c r="K41" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L41" s="4" t="str">
+      <c r="L41" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M41" s="4" t="str">
+      <c r="M41" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="42" spans="1:13">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="7" t="str">
+      <c r="A42" s="8"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="8"/>
+      <c r="D42" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E42" s="7" t="str">
+      <c r="E42" s="5" t="str">
         <f ca="1">IF(ISTEXT(C42),IF(D42=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D42,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="4" t="str">
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K42" s="4" t="str">
+      <c r="K42" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L42" s="4" t="str">
+      <c r="L42" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M42" s="4" t="str">
+      <c r="M42" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="43" spans="1:13">
-      <c r="A43" s="10"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="10"/>
-      <c r="D43" s="7" t="str">
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E43" s="7" t="str">
+      <c r="E43" s="5" t="str">
         <f ca="1">IF(ISTEXT(C43),IF(D43=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D43,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="4" t="str">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K43" s="4" t="str">
+      <c r="K43" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L43" s="4" t="str">
+      <c r="L43" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M43" s="4" t="str">
+      <c r="M43" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="44" spans="1:13">
-      <c r="A44" s="10"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="10"/>
-      <c r="D44" s="7" t="str">
+      <c r="A44" s="8"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="8"/>
+      <c r="D44" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E44" s="7" t="str">
+      <c r="E44" s="5" t="str">
         <f ca="1">IF(ISTEXT(C44),IF(D44=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D44,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="4" t="str">
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K44" s="4" t="str">
+      <c r="K44" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L44" s="4" t="str">
+      <c r="L44" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M44" s="4" t="str">
+      <c r="M44" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="7" t="str">
+      <c r="A45" s="8"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E45" s="7" t="str">
+      <c r="E45" s="5" t="str">
         <f ca="1">IF(ISTEXT(C45),IF(D45=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D45,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="4" t="str">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K45" s="4" t="str">
+      <c r="K45" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L45" s="4" t="str">
+      <c r="L45" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M45" s="4" t="str">
+      <c r="M45" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="46" spans="1:13">
-      <c r="A46" s="10"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="10"/>
-      <c r="D46" s="7" t="str">
+      <c r="A46" s="8"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="8"/>
+      <c r="D46" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E46" s="7" t="str">
+      <c r="E46" s="5" t="str">
         <f ca="1">IF(ISTEXT(C46),IF(D46=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D46,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="4" t="str">
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K46" s="4" t="str">
+      <c r="K46" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L46" s="4" t="str">
+      <c r="L46" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M46" s="4" t="str">
+      <c r="M46" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="47" spans="1:13">
-      <c r="A47" s="10"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="10"/>
-      <c r="D47" s="7" t="str">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E47" s="7" t="str">
+      <c r="E47" s="5" t="str">
         <f ca="1">IF(ISTEXT(C47),IF(D47=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D47,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="4" t="str">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
+      <c r="J47" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K47" s="4" t="str">
+      <c r="K47" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L47" s="4" t="str">
+      <c r="L47" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M47" s="4" t="str">
+      <c r="M47" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="48" spans="1:13">
-      <c r="A48" s="10"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="10"/>
-      <c r="D48" s="7" t="str">
+      <c r="A48" s="8"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="8"/>
+      <c r="D48" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E48" s="7" t="str">
+      <c r="E48" s="5" t="str">
         <f ca="1">IF(ISTEXT(C48),IF(D48=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D48,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="4" t="str">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="8"/>
+      <c r="J48" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K48" s="4" t="str">
+      <c r="K48" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L48" s="4" t="str">
+      <c r="L48" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M48" s="4" t="str">
+      <c r="M48" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="49" spans="1:13">
-      <c r="A49" s="10"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="7" t="str">
+      <c r="A49" s="8"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E49" s="7" t="str">
+      <c r="E49" s="5" t="str">
         <f ca="1">IF(ISTEXT(C49),IF(D49=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D49,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="4" t="str">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="8"/>
+      <c r="J49" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K49" s="4" t="str">
+      <c r="K49" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L49" s="4" t="str">
+      <c r="L49" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M49" s="4" t="str">
+      <c r="M49" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="50" spans="1:13">
-      <c r="A50" s="10"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="10"/>
-      <c r="D50" s="7" t="str">
+      <c r="A50" s="8"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="8"/>
+      <c r="D50" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E50" s="7" t="str">
+      <c r="E50" s="5" t="str">
         <f ca="1">IF(ISTEXT(C50),IF(D50=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D50,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="4" t="str">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+      <c r="J50" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K50" s="4" t="str">
+      <c r="K50" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L50" s="4" t="str">
+      <c r="L50" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M50" s="4" t="str">
+      <c r="M50" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="51" spans="1:13">
-      <c r="A51" s="10"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="10"/>
-      <c r="D51" s="7" t="str">
+      <c r="A51" s="8"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E51" s="7" t="str">
+      <c r="E51" s="5" t="str">
         <f ca="1">IF(ISTEXT(C51),IF(D51=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D51,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="4" t="str">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+      <c r="I51" s="8"/>
+      <c r="J51" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K51" s="4" t="str">
+      <c r="K51" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L51" s="4" t="str">
+      <c r="L51" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M51" s="4" t="str">
+      <c r="M51" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="52" spans="1:13">
-      <c r="A52" s="10"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="7" t="str">
+      <c r="A52" s="8"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="8"/>
+      <c r="D52" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E52" s="7" t="str">
+      <c r="E52" s="5" t="str">
         <f ca="1">IF(ISTEXT(C52),IF(D52=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D52,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="4" t="str">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+      <c r="I52" s="8"/>
+      <c r="J52" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K52" s="4" t="str">
+      <c r="K52" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L52" s="4" t="str">
+      <c r="L52" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M52" s="4" t="str">
+      <c r="M52" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="53" spans="1:13">
-      <c r="A53" s="10"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="7" t="str">
+      <c r="A53" s="8"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E53" s="7" t="str">
+      <c r="E53" s="5" t="str">
         <f ca="1">IF(ISTEXT(C53),IF(D53=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D53,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="4" t="str">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+      <c r="I53" s="8"/>
+      <c r="J53" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K53" s="4" t="str">
+      <c r="K53" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L53" s="4" t="str">
+      <c r="L53" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M53" s="4" t="str">
+      <c r="M53" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="54" spans="1:13">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="7" t="str">
+      <c r="A54" s="8"/>
+      <c r="B54" s="8"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E54" s="7" t="str">
+      <c r="E54" s="5" t="str">
         <f ca="1">IF(ISTEXT(C54),IF(D54=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D54,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="4" t="str">
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K54" s="4" t="str">
+      <c r="K54" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L54" s="4" t="str">
+      <c r="L54" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M54" s="4" t="str">
+      <c r="M54" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="55" spans="1:13">
-      <c r="A55" s="10"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="10"/>
-      <c r="D55" s="7" t="str">
+      <c r="A55" s="8"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E55" s="7" t="str">
+      <c r="E55" s="5" t="str">
         <f ca="1">IF(ISTEXT(C55),IF(D55=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D55,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="4" t="str">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+      <c r="I55" s="8"/>
+      <c r="J55" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K55" s="4" t="str">
+      <c r="K55" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L55" s="4" t="str">
+      <c r="L55" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M55" s="4" t="str">
+      <c r="M55" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="56" spans="1:13">
-      <c r="A56" s="10"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="10"/>
-      <c r="D56" s="7" t="str">
+      <c r="A56" s="8"/>
+      <c r="B56" s="8"/>
+      <c r="C56" s="8"/>
+      <c r="D56" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E56" s="7" t="str">
+      <c r="E56" s="5" t="str">
         <f ca="1">IF(ISTEXT(C56),IF(D56=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D56,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="4" t="str">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+      <c r="I56" s="8"/>
+      <c r="J56" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K56" s="4" t="str">
+      <c r="K56" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L56" s="4" t="str">
+      <c r="L56" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M56" s="4" t="str">
+      <c r="M56" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="57" spans="1:13">
-      <c r="A57" s="10"/>
-      <c r="B57" s="10"/>
-      <c r="C57" s="10"/>
-      <c r="D57" s="7" t="str">
+      <c r="A57" s="8"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="8"/>
+      <c r="D57" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E57" s="7" t="str">
+      <c r="E57" s="5" t="str">
         <f ca="1">IF(ISTEXT(C57),IF(D57=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D57,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="4" t="str">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+      <c r="I57" s="8"/>
+      <c r="J57" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K57" s="4" t="str">
+      <c r="K57" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L57" s="4" t="str">
+      <c r="L57" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M57" s="4" t="str">
+      <c r="M57" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="58" spans="1:13">
-      <c r="A58" s="10"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="10"/>
-      <c r="D58" s="7" t="str">
+      <c r="A58" s="8"/>
+      <c r="B58" s="8"/>
+      <c r="C58" s="8"/>
+      <c r="D58" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E58" s="7" t="str">
+      <c r="E58" s="5" t="str">
         <f ca="1">IF(ISTEXT(C58),IF(D58=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D58,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="4" t="str">
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+      <c r="I58" s="8"/>
+      <c r="J58" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K58" s="4" t="str">
+      <c r="K58" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L58" s="4" t="str">
+      <c r="L58" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M58" s="4" t="str">
+      <c r="M58" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59" spans="1:13">
-      <c r="A59" s="10"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="10"/>
-      <c r="D59" s="7" t="str">
+      <c r="A59" s="8"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="8"/>
+      <c r="D59" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E59" s="7" t="str">
+      <c r="E59" s="5" t="str">
         <f ca="1">IF(ISTEXT(C59),IF(D59=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D59,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="4" t="str">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+      <c r="I59" s="8"/>
+      <c r="J59" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K59" s="4" t="str">
+      <c r="K59" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L59" s="4" t="str">
+      <c r="L59" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M59" s="4" t="str">
+      <c r="M59" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="60" spans="1:13">
-      <c r="A60" s="10"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="10"/>
-      <c r="D60" s="7" t="str">
+      <c r="A60" s="8"/>
+      <c r="B60" s="8"/>
+      <c r="C60" s="8"/>
+      <c r="D60" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E60" s="7" t="str">
+      <c r="E60" s="5" t="str">
         <f ca="1">IF(ISTEXT(C60),IF(D60=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D60,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="4" t="str">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K60" s="4" t="str">
+      <c r="K60" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L60" s="4" t="str">
+      <c r="L60" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M60" s="4" t="str">
+      <c r="M60" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61" spans="1:13">
-      <c r="A61" s="10"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="10"/>
-      <c r="D61" s="7" t="str">
+      <c r="A61" s="8"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="8"/>
+      <c r="D61" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E61" s="7" t="str">
+      <c r="E61" s="5" t="str">
         <f ca="1">IF(ISTEXT(C61),IF(D61=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D61,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="4" t="str">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+      <c r="I61" s="8"/>
+      <c r="J61" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K61" s="4" t="str">
+      <c r="K61" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L61" s="4" t="str">
+      <c r="L61" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M61" s="4" t="str">
+      <c r="M61" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="62" spans="1:13">
-      <c r="A62" s="10"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="10"/>
-      <c r="D62" s="7" t="str">
+      <c r="A62" s="8"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="8"/>
+      <c r="D62" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E62" s="7" t="str">
+      <c r="E62" s="5" t="str">
         <f ca="1">IF(ISTEXT(C62),IF(D62=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D62,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="4" t="str">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+      <c r="I62" s="8"/>
+      <c r="J62" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K62" s="4" t="str">
+      <c r="K62" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L62" s="4" t="str">
+      <c r="L62" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M62" s="4" t="str">
+      <c r="M62" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="63" spans="1:13">
-      <c r="A63" s="10"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="10"/>
-      <c r="D63" s="7" t="str">
+      <c r="A63" s="8"/>
+      <c r="B63" s="8"/>
+      <c r="C63" s="8"/>
+      <c r="D63" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E63" s="7" t="str">
+      <c r="E63" s="5" t="str">
         <f ca="1">IF(ISTEXT(C63),IF(D63=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D63,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="4" t="str">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="8"/>
+      <c r="I63" s="8"/>
+      <c r="J63" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K63" s="4" t="str">
+      <c r="K63" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L63" s="4" t="str">
+      <c r="L63" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M63" s="4" t="str">
+      <c r="M63" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="64" spans="1:13">
-      <c r="A64" s="10"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="10"/>
-      <c r="D64" s="7" t="str">
+      <c r="A64" s="8"/>
+      <c r="B64" s="8"/>
+      <c r="C64" s="8"/>
+      <c r="D64" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E64" s="7" t="str">
+      <c r="E64" s="5" t="str">
         <f ca="1">IF(ISTEXT(C64),IF(D64=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D64,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="4" t="str">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
+      <c r="J64" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K64" s="4" t="str">
+      <c r="K64" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L64" s="4" t="str">
+      <c r="L64" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M64" s="4" t="str">
+      <c r="M64" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="65" spans="1:13">
-      <c r="A65" s="10"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="10"/>
-      <c r="D65" s="7" t="str">
+      <c r="A65" s="8"/>
+      <c r="B65" s="8"/>
+      <c r="C65" s="8"/>
+      <c r="D65" s="5" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E65" s="7" t="str">
+      <c r="E65" s="5" t="str">
         <f ca="1">IF(ISTEXT(C65),IF(D65=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D65,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="4" t="str">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="8"/>
+      <c r="J65" s="3" t="str">
         <f t="shared" si="6"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K65" s="4" t="str">
+      <c r="K65" s="3" t="str">
         <f t="shared" si="7"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L65" s="4" t="str">
+      <c r="L65" s="3" t="str">
         <f t="shared" si="8"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M65" s="4" t="str">
+      <c r="M65" s="3" t="str">
         <f t="shared" si="9"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="66" spans="1:13">
-      <c r="A66" s="10"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="10"/>
-      <c r="D66" s="7" t="str">
+      <c r="A66" s="8"/>
+      <c r="B66" s="8"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="5" t="str">
         <f t="shared" ref="D66:D97" si="10">IF(ISBLANK(C66)," ",CONCATENATE("{",C66,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E66" s="7" t="str">
+      <c r="E66" s="5" t="str">
         <f ca="1">IF(ISTEXT(C66),IF(D66=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D66,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="4" t="str">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="3" t="str">
         <f t="shared" ref="J66:J100" si="11">IF(ISBLANK(C66)," ",CONCATENATE("\newcommand{",F66,"}{",H66,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K66" s="4" t="str">
+      <c r="K66" s="3" t="str">
         <f t="shared" ref="K66:K100" si="12">IF(ISBLANK(C66)," ",CONCATENATE("\newglossaryentry{",B66,"}{name={$",C66,"$},description={",F66,"},unit={\si{\",I66,"}},type=symbolslist,sort=","1}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L66" s="4" t="str">
+      <c r="L66" s="3" t="str">
         <f t="shared" ref="L66:L100" si="13">IF(ISBLANK(C66)," ",CONCATENATE("\newcommand{",G66,"}{\parbox[t]{","\widtheqparameter","}","{",F66,"}\hspace{","\widtheqwhitespace","}[\si{","\",I66,"}]}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M66" s="4" t="str">
+      <c r="M66" s="3" t="str">
         <f t="shared" ref="M66:M100" si="14">IF(ISBLANK(C66)," ",CONCATENATE(C66," &amp; ",G66," \\"))</f>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="67" spans="1:13">
-      <c r="A67" s="10"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="10"/>
-      <c r="D67" s="7" t="str">
+      <c r="A67" s="8"/>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8"/>
+      <c r="D67" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E67" s="7" t="str">
+      <c r="E67" s="5" t="str">
         <f ca="1">IF(ISTEXT(C67),IF(D67=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D67,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="4" t="str">
+      <c r="F67" s="8"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="8"/>
+      <c r="I67" s="8"/>
+      <c r="J67" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K67" s="4" t="str">
+      <c r="K67" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L67" s="4" t="str">
+      <c r="L67" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M67" s="4" t="str">
+      <c r="M67" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="68" spans="1:13">
-      <c r="A68" s="10"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="10"/>
-      <c r="D68" s="7" t="str">
+      <c r="A68" s="8"/>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8"/>
+      <c r="D68" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E68" s="7" t="str">
+      <c r="E68" s="5" t="str">
         <f ca="1">IF(ISTEXT(C68),IF(D68=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D68,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="4" t="str">
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
+      <c r="J68" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K68" s="4" t="str">
+      <c r="K68" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L68" s="4" t="str">
+      <c r="L68" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M68" s="4" t="str">
+      <c r="M68" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="69" spans="1:13">
-      <c r="A69" s="10"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="10"/>
-      <c r="D69" s="7" t="str">
+      <c r="A69" s="8"/>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8"/>
+      <c r="D69" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E69" s="7" t="str">
+      <c r="E69" s="5" t="str">
         <f ca="1">IF(ISTEXT(C69),IF(D69=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D69,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="4" t="str">
+      <c r="F69" s="8"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="8"/>
+      <c r="I69" s="8"/>
+      <c r="J69" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K69" s="4" t="str">
+      <c r="K69" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L69" s="4" t="str">
+      <c r="L69" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M69" s="4" t="str">
+      <c r="M69" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="70" spans="1:13">
-      <c r="A70" s="10"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="10"/>
-      <c r="D70" s="7" t="str">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E70" s="7" t="str">
+      <c r="E70" s="5" t="str">
         <f ca="1">IF(ISTEXT(C70),IF(D70=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D70,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="4" t="str">
+      <c r="F70" s="8"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="8"/>
+      <c r="I70" s="8"/>
+      <c r="J70" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K70" s="4" t="str">
+      <c r="K70" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L70" s="4" t="str">
+      <c r="L70" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M70" s="4" t="str">
+      <c r="M70" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="71" spans="1:13">
-      <c r="A71" s="10"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="10"/>
-      <c r="D71" s="7" t="str">
+      <c r="A71" s="8"/>
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E71" s="7" t="str">
+      <c r="E71" s="5" t="str">
         <f ca="1">IF(ISTEXT(C71),IF(D71=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D71,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="4" t="str">
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
+      <c r="J71" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K71" s="4" t="str">
+      <c r="K71" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L71" s="4" t="str">
+      <c r="L71" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M71" s="4" t="str">
+      <c r="M71" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="72" spans="1:13">
-      <c r="A72" s="10"/>
-      <c r="B72" s="10"/>
-      <c r="C72" s="10"/>
-      <c r="D72" s="7" t="str">
+      <c r="A72" s="8"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E72" s="7" t="str">
+      <c r="E72" s="5" t="str">
         <f ca="1">IF(ISTEXT(C72),IF(D72=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D72,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="4" t="str">
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="8"/>
+      <c r="I72" s="8"/>
+      <c r="J72" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K72" s="4" t="str">
+      <c r="K72" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L72" s="4" t="str">
+      <c r="L72" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M72" s="4" t="str">
+      <c r="M72" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="73" spans="1:13">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
-      <c r="D73" s="7" t="str">
+      <c r="A73" s="8"/>
+      <c r="B73" s="8"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E73" s="7" t="str">
+      <c r="E73" s="5" t="str">
         <f ca="1">IF(ISTEXT(C73),IF(D73=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D73,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="4" t="str">
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K73" s="4" t="str">
+      <c r="K73" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L73" s="4" t="str">
+      <c r="L73" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M73" s="4" t="str">
+      <c r="M73" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="74" spans="1:13">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
-      <c r="D74" s="7" t="str">
+      <c r="A74" s="8"/>
+      <c r="B74" s="8"/>
+      <c r="C74" s="8"/>
+      <c r="D74" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E74" s="7" t="str">
+      <c r="E74" s="5" t="str">
         <f ca="1">IF(ISTEXT(C74),IF(D74=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D74,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="4" t="str">
+      <c r="F74" s="8"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="8"/>
+      <c r="I74" s="8"/>
+      <c r="J74" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K74" s="4" t="str">
+      <c r="K74" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L74" s="4" t="str">
+      <c r="L74" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M74" s="4" t="str">
+      <c r="M74" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="75" spans="1:13">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
-      <c r="D75" s="7" t="str">
+      <c r="A75" s="8"/>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8"/>
+      <c r="D75" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E75" s="7" t="str">
+      <c r="E75" s="5" t="str">
         <f ca="1">IF(ISTEXT(C75),IF(D75=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D75,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="4" t="str">
+      <c r="F75" s="8"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="8"/>
+      <c r="I75" s="8"/>
+      <c r="J75" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K75" s="4" t="str">
+      <c r="K75" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L75" s="4" t="str">
+      <c r="L75" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M75" s="4" t="str">
+      <c r="M75" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="76" spans="1:13">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
-      <c r="D76" s="7" t="str">
+      <c r="A76" s="8"/>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8"/>
+      <c r="D76" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E76" s="7" t="str">
+      <c r="E76" s="5" t="str">
         <f ca="1">IF(ISTEXT(C76),IF(D76=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D76,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="4" t="str">
+      <c r="F76" s="8"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="8"/>
+      <c r="I76" s="8"/>
+      <c r="J76" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K76" s="4" t="str">
+      <c r="K76" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L76" s="4" t="str">
+      <c r="L76" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M76" s="4" t="str">
+      <c r="M76" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="77" spans="1:13">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
-      <c r="D77" s="7" t="str">
+      <c r="A77" s="8"/>
+      <c r="B77" s="8"/>
+      <c r="C77" s="8"/>
+      <c r="D77" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E77" s="7" t="str">
+      <c r="E77" s="5" t="str">
         <f ca="1">IF(ISTEXT(C77),IF(D77=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D77,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="4" t="str">
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
+      <c r="J77" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K77" s="4" t="str">
+      <c r="K77" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L77" s="4" t="str">
+      <c r="L77" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M77" s="4" t="str">
+      <c r="M77" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="78" spans="1:13">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="7" t="str">
+      <c r="A78" s="8"/>
+      <c r="B78" s="8"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E78" s="7" t="str">
+      <c r="E78" s="5" t="str">
         <f ca="1">IF(ISTEXT(C78),IF(D78=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D78,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="4" t="str">
+      <c r="F78" s="8"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="8"/>
+      <c r="I78" s="8"/>
+      <c r="J78" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K78" s="4" t="str">
+      <c r="K78" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L78" s="4" t="str">
+      <c r="L78" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M78" s="4" t="str">
+      <c r="M78" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="79" spans="1:13">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="7" t="str">
+      <c r="A79" s="8"/>
+      <c r="B79" s="8"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E79" s="7" t="str">
+      <c r="E79" s="5" t="str">
         <f ca="1">IF(ISTEXT(C79),IF(D79=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D79,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="4" t="str">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+      <c r="J79" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K79" s="4" t="str">
+      <c r="K79" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L79" s="4" t="str">
+      <c r="L79" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M79" s="4" t="str">
+      <c r="M79" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="80" spans="1:13">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
-      <c r="D80" s="7" t="str">
+      <c r="A80" s="8"/>
+      <c r="B80" s="8"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E80" s="7" t="str">
+      <c r="E80" s="5" t="str">
         <f ca="1">IF(ISTEXT(C80),IF(D80=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D80,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="4" t="str">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K80" s="4" t="str">
+      <c r="K80" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L80" s="4" t="str">
+      <c r="L80" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M80" s="4" t="str">
+      <c r="M80" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="81" spans="1:13">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="7" t="str">
+      <c r="A81" s="8"/>
+      <c r="B81" s="8"/>
+      <c r="C81" s="8"/>
+      <c r="D81" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E81" s="7" t="str">
+      <c r="E81" s="5" t="str">
         <f ca="1">IF(ISTEXT(C81),IF(D81=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D81,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="4" t="str">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="8"/>
+      <c r="I81" s="8"/>
+      <c r="J81" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K81" s="4" t="str">
+      <c r="K81" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L81" s="4" t="str">
+      <c r="L81" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M81" s="4" t="str">
+      <c r="M81" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="82" spans="1:13">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="7" t="str">
+      <c r="A82" s="8"/>
+      <c r="B82" s="8"/>
+      <c r="C82" s="8"/>
+      <c r="D82" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E82" s="7" t="str">
+      <c r="E82" s="5" t="str">
         <f ca="1">IF(ISTEXT(C82),IF(D82=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D82,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="4" t="str">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+      <c r="J82" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K82" s="4" t="str">
+      <c r="K82" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L82" s="4" t="str">
+      <c r="L82" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M82" s="4" t="str">
+      <c r="M82" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="83" spans="1:13">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="7" t="str">
+      <c r="A83" s="8"/>
+      <c r="B83" s="8"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E83" s="7" t="str">
+      <c r="E83" s="5" t="str">
         <f ca="1">IF(ISTEXT(C83),IF(D83=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D83,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="4" t="str">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+      <c r="J83" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K83" s="4" t="str">
+      <c r="K83" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L83" s="4" t="str">
+      <c r="L83" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M83" s="4" t="str">
+      <c r="M83" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="84" spans="1:13">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="7" t="str">
+      <c r="A84" s="8"/>
+      <c r="B84" s="8"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E84" s="7" t="str">
+      <c r="E84" s="5" t="str">
         <f ca="1">IF(ISTEXT(C84),IF(D84=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D84,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="4" t="str">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+      <c r="J84" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K84" s="4" t="str">
+      <c r="K84" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L84" s="4" t="str">
+      <c r="L84" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M84" s="4" t="str">
+      <c r="M84" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="85" spans="1:13">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
-      <c r="D85" s="7" t="str">
+      <c r="A85" s="8"/>
+      <c r="B85" s="8"/>
+      <c r="C85" s="8"/>
+      <c r="D85" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E85" s="7" t="str">
+      <c r="E85" s="5" t="str">
         <f ca="1">IF(ISTEXT(C85),IF(D85=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D85,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="4" t="str">
+      <c r="F85" s="8"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+      <c r="J85" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K85" s="4" t="str">
+      <c r="K85" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L85" s="4" t="str">
+      <c r="L85" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M85" s="4" t="str">
+      <c r="M85" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="86" spans="1:13">
-      <c r="A86" s="10"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="7" t="str">
+      <c r="A86" s="8"/>
+      <c r="B86" s="8"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E86" s="7" t="str">
+      <c r="E86" s="5" t="str">
         <f ca="1">IF(ISTEXT(C86),IF(D86=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D86,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F86" s="10"/>
-      <c r="G86" s="10"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="4" t="str">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+      <c r="J86" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K86" s="4" t="str">
+      <c r="K86" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L86" s="4" t="str">
+      <c r="L86" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M86" s="4" t="str">
+      <c r="M86" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="87" spans="1:13">
-      <c r="A87" s="10"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="7" t="str">
+      <c r="A87" s="8"/>
+      <c r="B87" s="8"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E87" s="7" t="str">
+      <c r="E87" s="5" t="str">
         <f ca="1">IF(ISTEXT(C87),IF(D87=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D87,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="10"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="4" t="str">
+      <c r="F87" s="8"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+      <c r="J87" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K87" s="4" t="str">
+      <c r="K87" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L87" s="4" t="str">
+      <c r="L87" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M87" s="4" t="str">
+      <c r="M87" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="88" spans="1:13">
-      <c r="A88" s="10"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="7" t="str">
+      <c r="A88" s="8"/>
+      <c r="B88" s="8"/>
+      <c r="C88" s="8"/>
+      <c r="D88" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E88" s="7" t="str">
+      <c r="E88" s="5" t="str">
         <f ca="1">IF(ISTEXT(C88),IF(D88=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D88,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F88" s="10"/>
-      <c r="G88" s="10"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="4" t="str">
+      <c r="F88" s="8"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+      <c r="J88" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K88" s="4" t="str">
+      <c r="K88" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L88" s="4" t="str">
+      <c r="L88" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M88" s="4" t="str">
+      <c r="M88" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="89" spans="1:13">
-      <c r="A89" s="10"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="7" t="str">
+      <c r="A89" s="8"/>
+      <c r="B89" s="8"/>
+      <c r="C89" s="8"/>
+      <c r="D89" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E89" s="7" t="str">
+      <c r="E89" s="5" t="str">
         <f ca="1">IF(ISTEXT(C89),IF(D89=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D89,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F89" s="10"/>
-      <c r="G89" s="10"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="4" t="str">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+      <c r="J89" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K89" s="4" t="str">
+      <c r="K89" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L89" s="4" t="str">
+      <c r="L89" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M89" s="4" t="str">
+      <c r="M89" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="90" spans="1:13">
-      <c r="A90" s="10"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="7" t="str">
+      <c r="A90" s="8"/>
+      <c r="B90" s="8"/>
+      <c r="C90" s="8"/>
+      <c r="D90" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E90" s="7" t="str">
+      <c r="E90" s="5" t="str">
         <f ca="1">IF(ISTEXT(C90),IF(D90=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D90,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F90" s="10"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="4" t="str">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+      <c r="J90" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K90" s="4" t="str">
+      <c r="K90" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L90" s="4" t="str">
+      <c r="L90" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M90" s="4" t="str">
+      <c r="M90" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="91" spans="1:13">
-      <c r="A91" s="10"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="7" t="str">
+      <c r="A91" s="8"/>
+      <c r="B91" s="8"/>
+      <c r="C91" s="8"/>
+      <c r="D91" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E91" s="7" t="str">
+      <c r="E91" s="5" t="str">
         <f ca="1">IF(ISTEXT(C91),IF(D91=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D91,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="4" t="str">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+      <c r="J91" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K91" s="4" t="str">
+      <c r="K91" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L91" s="4" t="str">
+      <c r="L91" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M91" s="4" t="str">
+      <c r="M91" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="92" spans="1:13">
-      <c r="A92" s="10"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="7" t="str">
+      <c r="A92" s="8"/>
+      <c r="B92" s="8"/>
+      <c r="C92" s="8"/>
+      <c r="D92" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E92" s="7" t="str">
+      <c r="E92" s="5" t="str">
         <f ca="1">IF(ISTEXT(C92),IF(D92=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D92,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="4" t="str">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="8"/>
+      <c r="I92" s="8"/>
+      <c r="J92" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K92" s="4" t="str">
+      <c r="K92" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L92" s="4" t="str">
+      <c r="L92" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M92" s="4" t="str">
+      <c r="M92" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="93" spans="1:13">
-      <c r="A93" s="10"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="7" t="str">
+      <c r="A93" s="8"/>
+      <c r="B93" s="8"/>
+      <c r="C93" s="8"/>
+      <c r="D93" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E93" s="7" t="str">
+      <c r="E93" s="5" t="str">
         <f ca="1">IF(ISTEXT(C93),IF(D93=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D93,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F93" s="10"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="4" t="str">
+      <c r="F93" s="8"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="8"/>
+      <c r="I93" s="8"/>
+      <c r="J93" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K93" s="4" t="str">
+      <c r="K93" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L93" s="4" t="str">
+      <c r="L93" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M93" s="4" t="str">
+      <c r="M93" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="94" spans="1:13">
-      <c r="A94" s="10"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="7" t="str">
+      <c r="A94" s="8"/>
+      <c r="B94" s="8"/>
+      <c r="C94" s="8"/>
+      <c r="D94" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E94" s="7" t="str">
+      <c r="E94" s="5" t="str">
         <f ca="1">IF(ISTEXT(C94),IF(D94=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D94,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="4" t="str">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+      <c r="J94" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K94" s="4" t="str">
+      <c r="K94" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L94" s="4" t="str">
+      <c r="L94" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M94" s="4" t="str">
+      <c r="M94" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="95" spans="1:13">
-      <c r="A95" s="10"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="7" t="str">
+      <c r="A95" s="8"/>
+      <c r="B95" s="8"/>
+      <c r="C95" s="8"/>
+      <c r="D95" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E95" s="7" t="str">
+      <c r="E95" s="5" t="str">
         <f ca="1">IF(ISTEXT(C95),IF(D95=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D95,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="4" t="str">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+      <c r="J95" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K95" s="4" t="str">
+      <c r="K95" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L95" s="4" t="str">
+      <c r="L95" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M95" s="4" t="str">
+      <c r="M95" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="96" spans="1:13">
-      <c r="A96" s="10"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="7" t="str">
+      <c r="A96" s="8"/>
+      <c r="B96" s="8"/>
+      <c r="C96" s="8"/>
+      <c r="D96" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E96" s="7" t="str">
+      <c r="E96" s="5" t="str">
         <f ca="1">IF(ISTEXT(C96),IF(D96=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D96,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F96" s="10"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="4" t="str">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+      <c r="J96" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K96" s="4" t="str">
+      <c r="K96" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L96" s="4" t="str">
+      <c r="L96" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M96" s="4" t="str">
+      <c r="M96" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="97" spans="1:13">
-      <c r="A97" s="10"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="10"/>
-      <c r="D97" s="7" t="str">
+      <c r="A97" s="8"/>
+      <c r="B97" s="8"/>
+      <c r="C97" s="8"/>
+      <c r="D97" s="5" t="str">
         <f t="shared" si="10"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E97" s="7" t="str">
+      <c r="E97" s="5" t="str">
         <f ca="1">IF(ISTEXT(C97),IF(D97=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D97,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F97" s="10"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="4" t="str">
+      <c r="F97" s="8"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="8"/>
+      <c r="I97" s="8"/>
+      <c r="J97" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K97" s="4" t="str">
+      <c r="K97" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L97" s="4" t="str">
+      <c r="L97" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M97" s="4" t="str">
+      <c r="M97" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="98" spans="1:13">
-      <c r="A98" s="10"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="10"/>
-      <c r="D98" s="7" t="str">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="5" t="str">
         <f t="shared" ref="D98:D100" si="15">IF(ISBLANK(C98)," ",CONCATENATE("{",C98,"}"))</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E98" s="7" t="str">
+      <c r="E98" s="5" t="str">
         <f ca="1">IF(ISTEXT(C98),IF(D98=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D98,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F98" s="10"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="4" t="str">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8"/>
+      <c r="I98" s="8"/>
+      <c r="J98" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K98" s="4" t="str">
+      <c r="K98" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L98" s="4" t="str">
+      <c r="L98" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M98" s="4" t="str">
+      <c r="M98" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="99" spans="1:13">
-      <c r="A99" s="10"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="10"/>
-      <c r="D99" s="7" t="str">
+      <c r="A99" s="8"/>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8"/>
+      <c r="D99" s="5" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E99" s="7" t="str">
+      <c r="E99" s="5" t="str">
         <f ca="1">IF(ISTEXT(C99),IF(D99=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D99,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="4" t="str">
+      <c r="F99" s="8"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="8"/>
+      <c r="I99" s="8"/>
+      <c r="J99" s="3" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K99" s="4" t="str">
+      <c r="K99" s="3" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L99" s="4" t="str">
+      <c r="L99" s="3" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M99" s="4" t="str">
+      <c r="M99" s="3" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="100" spans="1:13" s="2" customFormat="1">
-      <c r="A100" s="12"/>
-      <c r="B100" s="12"/>
-      <c r="C100" s="12"/>
-      <c r="D100" s="13" t="str">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="11" t="str">
         <f t="shared" si="15"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="E100" s="7" t="str">
+      <c r="E100" s="5" t="str">
         <f ca="1">IF(ISTEXT(C100),IF(D100=INDIRECT("Equations!$B$" &amp; Equations!$F$2+1),"",SEARCH(D100,INDIRECT("Equations!$C$" &amp; Equations!$F$2+1))),"")</f>
         <v/>
       </c>
-      <c r="F100" s="12"/>
-      <c r="G100" s="12"/>
-      <c r="H100" s="12"/>
-      <c r="I100" s="12"/>
-      <c r="J100" s="14" t="str">
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="12" t="str">
         <f t="shared" si="11"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="K100" s="14" t="str">
+      <c r="K100" s="12" t="str">
         <f t="shared" si="12"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="L100" s="14" t="str">
+      <c r="L100" s="12" t="str">
         <f t="shared" si="13"/>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="M100" s="14" t="str">
+      <c r="M100" s="12" t="str">
         <f t="shared" si="14"/>
         <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="101" spans="1:13">
-      <c r="A101" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="B101" s="11"/>
+      <c r="A101" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B101" s="9"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
+  <sortState ref="A2:M101">
+    <sortCondition ref="B2"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -6113,137 +6148,137 @@
   <dimension ref="A1:U101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E9" sqref="E9:J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.6640625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="4.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="95.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.1640625" style="47" customWidth="1"/>
-    <col min="5" max="5" width="32.6640625" style="23" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="23"/>
-    <col min="7" max="7" width="14.1640625" style="23" customWidth="1"/>
-    <col min="8" max="14" width="10.83203125" style="23"/>
-    <col min="15" max="21" width="10.83203125" style="24"/>
+    <col min="4" max="4" width="8.1640625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="32.6640625" style="20" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="20"/>
+    <col min="7" max="7" width="14.1640625" style="20" customWidth="1"/>
+    <col min="8" max="14" width="10.83203125" style="20"/>
+    <col min="15" max="21" width="10.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35" thickBot="1">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="F1" s="27"/>
+    </row>
+    <row r="2" spans="1:11" ht="52" thickBot="1">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="D2" s="32"/>
+      <c r="E2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="44"/>
-      <c r="F1" s="32"/>
-    </row>
-    <row r="2" spans="1:11" ht="52" thickBot="1">
-      <c r="A2" s="4">
+      <c r="F2" s="37">
+        <v>2</v>
+      </c>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:11" ht="68">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" s="33"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="28"/>
+    </row>
+    <row r="4" spans="1:11" ht="21">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="23" t="str">
+        <f ca="1">INDIRECT("B" &amp; F2+1)</f>
+        <v>{Ar}</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="35"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="32"/>
+    </row>
+    <row r="6" spans="1:11" ht="16" customHeight="1">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="35"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="25" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17" thickBot="1">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="27"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="35"/>
+      <c r="C9" s="36">
         <v>1</v>
       </c>
-      <c r="B2" s="48" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="49" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="45"/>
-      <c r="E2" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="50">
-        <v>1</v>
-      </c>
-      <c r="G2" s="31"/>
-    </row>
-    <row r="3" spans="1:11" ht="68">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" ht="21">
-      <c r="A4" s="4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="48"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="F4" s="27" t="str">
-        <f ca="1">INDIRECT("B" &amp; F2+1)</f>
-        <v>{Re}</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="4">
-        <v>4</v>
-      </c>
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="45"/>
-    </row>
-    <row r="6" spans="1:11" ht="16" customHeight="1">
-      <c r="A6" s="4">
-        <v>5</v>
-      </c>
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="4">
-        <v>6</v>
-      </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="29" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="17" thickBot="1">
-      <c r="A8" s="4">
-        <v>7</v>
-      </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="4">
-        <v>8</v>
-      </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="49">
-        <v>1</v>
-      </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="36" t="str">
+      <c r="D9" s="32"/>
+      <c r="E9" s="38" t="str">
         <f ca="1">CONCATENATE(INDIRECT("Equations!$C$"&amp;Equations!$F$2+1),
 CHAR(13),
 CHAR(10),
@@ -6368,959 +6403,961 @@
 CHAR(13),
 CHAR(10),
 "\end{definitions}")</f>
-        <v>\begin{equation} 
-\text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
+        <v>\begin{equation}
+\text{Ar} = \frac {{g}{L}^{3}{\rho_\ell}\left({\rho_b}-{\rho_\ell}\right)}{{\mu}^{2}}
+\equationunit{[\si{\nodimension}]}
 \end{equation}_x000D_
 \begin{definitions}_x000D_
-\rho_\ell &amp; \Erholiquid \\_x000D_
-u &amp; \Eu \\_x000D_
+g &amp; \Eg \\_x000D_
 L &amp; \EL \\_x000D_
 \mu &amp; \Emu \\_x000D_
+\rho_b &amp; \Erhobody \\_x000D_
+\rho_\ell &amp; \Erholiquid \\_x000D_
 \end{definitions}</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="31"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="K9" s="26"/>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="31"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="26"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="40"/>
-      <c r="K11" s="31"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="43"/>
+      <c r="K11" s="26"/>
     </row>
     <row r="12" spans="1:11" ht="17">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="48" t="str">
+      <c r="B12" s="35" t="str">
         <f>IF(ISERROR(SMALL(IF(IF(ISERROR(SEARCH(code,$C$2)),FALSE,TRUE),ROW($B$1:$B$7)),ROW(array))),"",INDEX($B$1:$C$7,SMALL(IF(IF(ISERROR(SEARCH(code,$C$2)),FALSE,TRUE),ROW($C$2)),ROW(array)),3))</f>
         <v/>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="31"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="26"/>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="40"/>
-      <c r="K13" s="31"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="39"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="31"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="41"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="43"/>
+      <c r="K14" s="26"/>
     </row>
     <row r="15" spans="1:11">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="40"/>
-      <c r="K15" s="31"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="42"/>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="43"/>
+      <c r="K15" s="26"/>
     </row>
     <row r="16" spans="1:11" ht="38" customHeight="1">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="31"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="26"/>
     </row>
     <row r="17" spans="1:11">
-      <c r="A17" s="4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="31"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="26"/>
     </row>
     <row r="18" spans="1:11">
-      <c r="A18" s="4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="39"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="31"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="26"/>
     </row>
     <row r="19" spans="1:11">
-      <c r="A19" s="4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="31"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="43"/>
+      <c r="K19" s="26"/>
     </row>
     <row r="20" spans="1:11">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="31"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="41"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
+      <c r="K20" s="26"/>
     </row>
     <row r="21" spans="1:11">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="31"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="36"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="26"/>
     </row>
     <row r="22" spans="1:11">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="31"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="26"/>
     </row>
     <row r="23" spans="1:11">
-      <c r="A23" s="4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="25"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="31"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="43"/>
+      <c r="K23" s="26"/>
     </row>
     <row r="24" spans="1:11">
-      <c r="A24" s="4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="39"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="31"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="26"/>
     </row>
     <row r="25" spans="1:11">
-      <c r="A25" s="4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="31"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="43"/>
+      <c r="K25" s="26"/>
     </row>
     <row r="26" spans="1:11">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>25</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="45"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="31"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="43"/>
+      <c r="K26" s="26"/>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>26</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="31"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="43"/>
+      <c r="K27" s="26"/>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="4">
+      <c r="A28" s="3">
         <v>27</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="31"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="43"/>
+      <c r="K28" s="26"/>
     </row>
     <row r="29" spans="1:11">
-      <c r="A29" s="4">
+      <c r="A29" s="3">
         <v>28</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="31"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="43"/>
+      <c r="K29" s="26"/>
     </row>
     <row r="30" spans="1:11">
-      <c r="A30" s="4">
+      <c r="A30" s="3">
         <v>29</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="45"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="25"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="25"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="31"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="43"/>
+      <c r="K30" s="26"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1">
-      <c r="A31" s="4">
+      <c r="A31" s="3">
         <v>30</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="45"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="43"/>
-      <c r="K31" s="31"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="45"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="26"/>
     </row>
     <row r="32" spans="1:11">
-      <c r="A32" s="4">
+      <c r="A32" s="3">
         <v>31</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="F32" s="28"/>
+      <c r="G32" s="28"/>
+      <c r="H32" s="28"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4">
+      <c r="A33" s="3">
         <v>32</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="45"/>
-      <c r="E33" s="29" t="str">
+      <c r="B33" s="35"/>
+      <c r="C33" s="36"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="25" t="str">
         <f t="array" aca="1" ref="E33" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M29))),"")</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4">
+      <c r="A34" s="3">
         <v>33</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="29" t="str">
+      <c r="B34" s="35"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="25" t="str">
         <f t="array" aca="1" ref="E34" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M30))),"")</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4">
+      <c r="A35" s="3">
         <v>34</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="29" t="str">
+      <c r="B35" s="35"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="25" t="str">
         <f t="array" aca="1" ref="E35" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M31))),"")</f>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4">
+      <c r="A36" s="3">
         <v>35</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="45"/>
-      <c r="E36" s="29" t="str">
+      <c r="B36" s="35"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="25" t="str">
         <f t="array" aca="1" ref="E36" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M32))),"")</f>
         <v/>
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4">
+      <c r="A37" s="3">
         <v>36</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="29" t="str">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="32"/>
+      <c r="E37" s="25" t="str">
         <f t="array" aca="1" ref="E37" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M33))),"")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="4">
+      <c r="A38" s="3">
         <v>37</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="45"/>
-      <c r="E38" s="29" t="str">
+      <c r="B38" s="35"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="32"/>
+      <c r="E38" s="25" t="str">
         <f t="array" aca="1" ref="E38" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M34))),"")</f>
         <v/>
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="4">
+      <c r="A39" s="3">
         <v>38</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="29" t="str">
+      <c r="B39" s="35"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="25" t="str">
         <f t="array" aca="1" ref="E39" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M35))),"")</f>
         <v/>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="4">
+      <c r="A40" s="3">
         <v>39</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="45"/>
-      <c r="E40" s="29" t="str">
+      <c r="B40" s="35"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="25" t="str">
         <f t="array" aca="1" ref="E40" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M36))),"")</f>
         <v/>
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="4">
+      <c r="A41" s="3">
         <v>40</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="45"/>
-      <c r="E41" s="29" t="str">
+      <c r="B41" s="35"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="25" t="str">
         <f t="array" aca="1" ref="E41" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$29,SMALL(IF(ISNUMBER(Symbols!E$2:E$29),ROW(Symbols!$M$2:$M$29)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M37))),"")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>41</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="45"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="32"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="4">
+      <c r="A43" s="3">
         <v>42</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="45"/>
+      <c r="B43" s="35"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="32"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="4">
+      <c r="A44" s="3">
         <v>43</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="45"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="32"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="4">
+      <c r="A45" s="3">
         <v>44</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="45"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="32"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="4">
+      <c r="A46" s="3">
         <v>45</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="45"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="32"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="4">
+      <c r="A47" s="3">
         <v>46</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="45"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="32"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="4">
+      <c r="A48" s="3">
         <v>47</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="45"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="32"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4">
+      <c r="A49" s="3">
         <v>48</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="45"/>
+      <c r="B49" s="35"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="32"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4">
+      <c r="A50" s="3">
         <v>49</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="45"/>
+      <c r="B50" s="35"/>
+      <c r="C50" s="36"/>
+      <c r="D50" s="32"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="A51" s="3">
         <v>50</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="45"/>
+      <c r="B51" s="35"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="32"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4">
+      <c r="A52" s="3">
         <v>51</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="45"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36"/>
+      <c r="D52" s="32"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4">
+      <c r="A53" s="3">
         <v>52</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="45"/>
+      <c r="B53" s="35"/>
+      <c r="C53" s="36"/>
+      <c r="D53" s="32"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4">
+      <c r="A54" s="3">
         <v>53</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="45"/>
+      <c r="B54" s="35"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="32"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4">
+      <c r="A55" s="3">
         <v>54</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="45"/>
+      <c r="B55" s="35"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="32"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4">
+      <c r="A56" s="3">
         <v>55</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="45"/>
+      <c r="B56" s="35"/>
+      <c r="C56" s="36"/>
+      <c r="D56" s="32"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="4">
+      <c r="A57" s="3">
         <v>56</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="45"/>
+      <c r="B57" s="35"/>
+      <c r="C57" s="36"/>
+      <c r="D57" s="32"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4">
+      <c r="A58" s="3">
         <v>57</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="45"/>
+      <c r="B58" s="35"/>
+      <c r="C58" s="36"/>
+      <c r="D58" s="32"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4">
+      <c r="A59" s="3">
         <v>58</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="45"/>
+      <c r="B59" s="35"/>
+      <c r="C59" s="36"/>
+      <c r="D59" s="32"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
+      <c r="A60" s="3">
         <v>59</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="49"/>
-      <c r="D60" s="45"/>
+      <c r="B60" s="35"/>
+      <c r="C60" s="36"/>
+      <c r="D60" s="32"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>60</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="49"/>
-      <c r="D61" s="45"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="32"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
+      <c r="A62" s="3">
         <v>61</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="49"/>
-      <c r="D62" s="45"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36"/>
+      <c r="D62" s="32"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
+      <c r="A63" s="3">
         <v>62</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="45"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="32"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
+      <c r="A64" s="3">
         <v>63</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="45"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36"/>
+      <c r="D64" s="32"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="4">
+      <c r="A65" s="3">
         <v>64</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="45"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36"/>
+      <c r="D65" s="32"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4">
+      <c r="A66" s="3">
         <v>65</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="45"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="36"/>
+      <c r="D66" s="32"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
+      <c r="A67" s="3">
         <v>66</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="45"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="32"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4">
+      <c r="A68" s="3">
         <v>67</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="45"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="36"/>
+      <c r="D68" s="32"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
+      <c r="A69" s="3">
         <v>68</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="45"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="32"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4">
+      <c r="A70" s="3">
         <v>69</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="45"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="32"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
+      <c r="A71" s="3">
         <v>70</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="45"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="32"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4">
+      <c r="A72" s="3">
         <v>71</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="45"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36"/>
+      <c r="D72" s="32"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
+      <c r="A73" s="3">
         <v>72</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="45"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36"/>
+      <c r="D73" s="32"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4">
+      <c r="A74" s="3">
         <v>73</v>
       </c>
-      <c r="B74" s="48"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="45"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="36"/>
+      <c r="D74" s="32"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="4">
+      <c r="A75" s="3">
         <v>74</v>
       </c>
-      <c r="B75" s="48"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="45"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="36"/>
+      <c r="D75" s="32"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4">
+      <c r="A76" s="3">
         <v>75</v>
       </c>
-      <c r="B76" s="48"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="45"/>
+      <c r="B76" s="35"/>
+      <c r="C76" s="36"/>
+      <c r="D76" s="32"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="4">
+      <c r="A77" s="3">
         <v>76</v>
       </c>
-      <c r="B77" s="48"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="45"/>
+      <c r="B77" s="35"/>
+      <c r="C77" s="36"/>
+      <c r="D77" s="32"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
+      <c r="A78" s="3">
         <v>77</v>
       </c>
-      <c r="B78" s="48"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="45"/>
+      <c r="B78" s="35"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="32"/>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
+      <c r="A79" s="3">
         <v>78</v>
       </c>
-      <c r="B79" s="48"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="45"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="36"/>
+      <c r="D79" s="32"/>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4">
+      <c r="A80" s="3">
         <v>79</v>
       </c>
-      <c r="B80" s="48"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="45"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="36"/>
+      <c r="D80" s="32"/>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4">
+      <c r="A81" s="3">
         <v>80</v>
       </c>
-      <c r="B81" s="48"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="45"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="36"/>
+      <c r="D81" s="32"/>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
+      <c r="A82" s="3">
         <v>81</v>
       </c>
-      <c r="B82" s="48"/>
-      <c r="C82" s="49"/>
-      <c r="D82" s="45"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="36"/>
+      <c r="D82" s="32"/>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4">
+      <c r="A83" s="3">
         <v>82</v>
       </c>
-      <c r="B83" s="48"/>
-      <c r="C83" s="49"/>
-      <c r="D83" s="45"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="36"/>
+      <c r="D83" s="32"/>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
+      <c r="A84" s="3">
         <v>83</v>
       </c>
-      <c r="B84" s="48"/>
-      <c r="C84" s="49"/>
-      <c r="D84" s="45"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="36"/>
+      <c r="D84" s="32"/>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
+      <c r="A85" s="3">
         <v>84</v>
       </c>
-      <c r="B85" s="48"/>
-      <c r="C85" s="49"/>
-      <c r="D85" s="45"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="36"/>
+      <c r="D85" s="32"/>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
+      <c r="A86" s="3">
         <v>85</v>
       </c>
-      <c r="B86" s="48"/>
-      <c r="C86" s="49"/>
-      <c r="D86" s="45"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="36"/>
+      <c r="D86" s="32"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4">
+      <c r="A87" s="3">
         <v>86</v>
       </c>
-      <c r="B87" s="48"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="45"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="32"/>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
+      <c r="A88" s="3">
         <v>87</v>
       </c>
-      <c r="B88" s="48"/>
-      <c r="C88" s="49"/>
-      <c r="D88" s="45"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="36"/>
+      <c r="D88" s="32"/>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
+      <c r="A89" s="3">
         <v>88</v>
       </c>
-      <c r="B89" s="48"/>
-      <c r="C89" s="49"/>
-      <c r="D89" s="45"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="36"/>
+      <c r="D89" s="32"/>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
+      <c r="A90" s="3">
         <v>89</v>
       </c>
-      <c r="B90" s="48"/>
-      <c r="C90" s="49"/>
-      <c r="D90" s="45"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="36"/>
+      <c r="D90" s="32"/>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
+      <c r="A91" s="3">
         <v>90</v>
       </c>
-      <c r="B91" s="48"/>
-      <c r="C91" s="49"/>
-      <c r="D91" s="45"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="36"/>
+      <c r="D91" s="32"/>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
+      <c r="A92" s="3">
         <v>91</v>
       </c>
-      <c r="B92" s="48"/>
-      <c r="C92" s="49"/>
-      <c r="D92" s="45"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="36"/>
+      <c r="D92" s="32"/>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
+      <c r="A93" s="3">
         <v>92</v>
       </c>
-      <c r="B93" s="48"/>
-      <c r="C93" s="49"/>
-      <c r="D93" s="45"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="36"/>
+      <c r="D93" s="32"/>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
+      <c r="A94" s="3">
         <v>93</v>
       </c>
-      <c r="B94" s="48"/>
-      <c r="C94" s="49"/>
-      <c r="D94" s="45"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="36"/>
+      <c r="D94" s="32"/>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>94</v>
       </c>
-      <c r="B95" s="48"/>
-      <c r="C95" s="49"/>
-      <c r="D95" s="45"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="36"/>
+      <c r="D95" s="32"/>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
+      <c r="A96" s="3">
         <v>95</v>
       </c>
-      <c r="B96" s="48"/>
-      <c r="C96" s="49"/>
-      <c r="D96" s="45"/>
+      <c r="B96" s="35"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="32"/>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4">
+      <c r="A97" s="3">
         <v>96</v>
       </c>
-      <c r="B97" s="48"/>
-      <c r="C97" s="49"/>
-      <c r="D97" s="45"/>
+      <c r="B97" s="35"/>
+      <c r="C97" s="36"/>
+      <c r="D97" s="32"/>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
+      <c r="A98" s="3">
         <v>97</v>
       </c>
-      <c r="B98" s="48"/>
-      <c r="C98" s="49"/>
-      <c r="D98" s="45"/>
+      <c r="B98" s="35"/>
+      <c r="C98" s="36"/>
+      <c r="D98" s="32"/>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4">
+      <c r="A99" s="3">
         <v>98</v>
       </c>
-      <c r="B99" s="48"/>
-      <c r="C99" s="49"/>
-      <c r="D99" s="45"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="36"/>
+      <c r="D99" s="32"/>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4">
+      <c r="A100" s="3">
         <v>99</v>
       </c>
-      <c r="B100" s="48"/>
-      <c r="C100" s="49"/>
-      <c r="D100" s="45"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="36"/>
+      <c r="D100" s="32"/>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4">
+      <c r="A101" s="3">
         <v>100</v>
       </c>
-      <c r="B101" s="48"/>
-      <c r="C101" s="49"/>
-      <c r="D101" s="45"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="36"/>
+      <c r="D101" s="32"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0"/>
@@ -7337,7 +7374,7 @@
   <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7354,10 +7391,10 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H1" t="str">
         <f>"ALS("&amp;F1&amp;"=z"&amp;";"""";"&amp;F1&amp;")"&amp;";"</f>
@@ -7367,36 +7404,36 @@
     <row r="2" spans="1:10">
       <c r="A2" t="str">
         <f t="array" aca="1" ref="A2" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M2))),"")</f>
-        <v>\rho_\ell &amp; \Erholiquid \\</v>
+        <v>g &amp; \Eg \\</v>
       </c>
       <c r="C2" t="str">
         <f>"--&gt; content helping to compose formulas"</f>
         <v>--&gt; content helping to compose formulas</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H2" t="str">
         <f>"ALS("&amp;F2&amp;"=z"&amp;";"""";"&amp;E2&amp;")"&amp;";"</f>
         <v>ALS(A3=z;"";TEKEN(13));</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="26">
       <c r="A3" t="str">
         <f t="array" aca="1" ref="A3" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M3))),"")</f>
-        <v>u &amp; \Eu \\</v>
-      </c>
-      <c r="C3" t="s">
-        <v>125</v>
+        <v>L &amp; \EL \\</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H3" t="str">
         <f>"ALS("&amp;F3&amp;"=z"&amp;";"""";"&amp;E3&amp;")"&amp;";"</f>
@@ -7406,10 +7443,10 @@
     <row r="4" spans="1:10">
       <c r="A4" t="str">
         <f t="array" aca="1" ref="A4" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M4))),"")</f>
-        <v>L &amp; \EL \\</v>
+        <v>\mu &amp; \Emu \\</v>
       </c>
       <c r="F4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H4" t="str">
         <f>"ALS("&amp;F4&amp;"=z"&amp;";"""";"&amp;F4&amp;")"&amp;";"</f>
@@ -7419,30 +7456,30 @@
     <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" t="str">
         <f t="array" aca="1" ref="A5" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M5))),"")</f>
-        <v>\mu &amp; \Emu \\</v>
+        <v>\rho_b &amp; \Erhobody \\</v>
       </c>
       <c r="E5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H5" t="str">
         <f>"ALS("&amp;F5&amp;"=z"&amp;";"""";"&amp;E5&amp;")"&amp;";"</f>
         <v>ALS(A4=z;"";TEKEN(13));</v>
       </c>
-      <c r="J5" s="15"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" ht="15" customHeight="1">
       <c r="A6" t="str">
         <f t="array" aca="1" ref="A6" ca="1">IFERROR(INDEX(Symbols!$M$2:$M$1000,SMALL(IF(ISNUMBER(Symbols!E$2:E$1000),ROW(Symbols!$M$2:$M$1000)-ROW(Symbols!$M$2)+1,""),ROWS(Symbols!$M$2:M6))),"")</f>
-        <v/>
+        <v>\rho_\ell &amp; \Erholiquid \\</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H6" t="str">
         <f>"ALS("&amp;F6&amp;"=z"&amp;";"""";"&amp;E6&amp;")"&amp;";"</f>
@@ -7450,8 +7487,9 @@
       </c>
       <c r="I6" t="str">
         <f ca="1">INDIRECT("Equations!$C$"&amp;Equations!$F$2+1)</f>
-        <v>\begin{equation} 
-\text{Re}=\frac{{\rho_\ell} {u}{L}}{\mu}\equationunit{[\si{\nodimension}]} 
+        <v>\begin{equation}
+\text{Ar} = \frac {{g}{L}^{3}{\rho_\ell}\left({\rho_b}-{\rho_\ell}\right)}{{\mu}^{2}}
+\equationunit{[\si{\nodimension}]}
 \end{equation}</v>
       </c>
     </row>
@@ -7461,7 +7499,7 @@
         <v/>
       </c>
       <c r="F7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" ref="H7" si="0">"ALS("&amp;F7&amp;"=z"&amp;";"""";"&amp;F7&amp;")"&amp;";"</f>
@@ -7474,16 +7512,16 @@
         <v/>
       </c>
       <c r="E8" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" ref="H8:H9" si="1">"ALS("&amp;F8&amp;"=z"&amp;";"""";"&amp;E8&amp;")"&amp;";"</f>
         <v>ALS(A5=z;"";TEKEN(13));</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="str">
@@ -7491,10 +7529,10 @@
         <v/>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
@@ -7507,14 +7545,14 @@
         <v/>
       </c>
       <c r="F10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" ref="H10" si="2">"ALS("&amp;F10&amp;"=z"&amp;";"""";"&amp;F10&amp;")"&amp;";"</f>
         <v>ALS(A5=z;"";A5);</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7523,10 +7561,10 @@
         <v/>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" ref="H11:H12" si="3">"ALS("&amp;F11&amp;"=z"&amp;";"""";"&amp;E11&amp;")"&amp;";"</f>
@@ -7539,17 +7577,17 @@
         <v/>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="3"/>
         <v>ALS(A6=z;"";TEKEN(10));</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7558,7 +7596,7 @@
         <v/>
       </c>
       <c r="F13" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" ref="H13" si="4">"ALS("&amp;F13&amp;"=z"&amp;";"""";"&amp;F13&amp;")"&amp;";"</f>
@@ -7571,10 +7609,10 @@
         <v/>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" ref="H14:H15" si="5">"ALS("&amp;F14&amp;"=z"&amp;";"""";"&amp;E14&amp;")"&amp;";"</f>
@@ -7587,10 +7625,10 @@
         <v/>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F15" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="5"/>
@@ -7603,7 +7641,7 @@
         <v/>
       </c>
       <c r="F16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" ref="H16" si="6">"ALS("&amp;F16&amp;"=z"&amp;";"""";"&amp;F16&amp;")"&amp;";"</f>
@@ -7616,10 +7654,10 @@
         <v/>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F17" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" ref="H17:H18" si="7">"ALS("&amp;F17&amp;"=z"&amp;";"""";"&amp;E17&amp;")"&amp;";"</f>
@@ -7632,10 +7670,10 @@
         <v/>
       </c>
       <c r="E18" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="7"/>
@@ -7648,7 +7686,7 @@
         <v/>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" ref="H19" si="8">"ALS("&amp;F19&amp;"=z"&amp;";"""";"&amp;F19&amp;")"&amp;";"</f>
@@ -7661,10 +7699,10 @@
         <v/>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" ref="H20:H21" si="9">"ALS("&amp;F20&amp;"=z"&amp;";"""";"&amp;E20&amp;")"&amp;";"</f>
@@ -7677,10 +7715,10 @@
         <v/>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="9"/>
@@ -7693,7 +7731,7 @@
         <v/>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H22" t="str">
         <f t="shared" ref="H22" si="10">"ALS("&amp;F22&amp;"=z"&amp;";"""";"&amp;F22&amp;")"&amp;";"</f>
@@ -7706,10 +7744,10 @@
         <v/>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H23" t="str">
         <f t="shared" ref="H23:H24" si="11">"ALS("&amp;F23&amp;"=z"&amp;";"""";"&amp;E23&amp;")"&amp;";"</f>
@@ -7722,10 +7760,10 @@
         <v/>
       </c>
       <c r="E24" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H24" t="str">
         <f t="shared" si="11"/>
@@ -7738,7 +7776,7 @@
         <v/>
       </c>
       <c r="F25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H25" t="str">
         <f t="shared" ref="H25" si="12">"ALS("&amp;F25&amp;"=z"&amp;";"""";"&amp;F25&amp;")"&amp;";"</f>
@@ -7751,10 +7789,10 @@
         <v/>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F26" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H26" t="str">
         <f t="shared" ref="H26:H27" si="13">"ALS("&amp;F26&amp;"=z"&amp;";"""";"&amp;E26&amp;")"&amp;";"</f>
@@ -7767,10 +7805,10 @@
         <v/>
       </c>
       <c r="E27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H27" t="str">
         <f t="shared" si="13"/>
@@ -7783,7 +7821,7 @@
         <v/>
       </c>
       <c r="F28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H28" t="str">
         <f t="shared" ref="H28" si="14">"ALS("&amp;F28&amp;"=z"&amp;";"""";"&amp;F28&amp;")"&amp;";"</f>
@@ -7796,10 +7834,10 @@
         <v/>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H29" t="str">
         <f t="shared" ref="H29:H30" si="15">"ALS("&amp;F29&amp;"=z"&amp;";"""";"&amp;E29&amp;")"&amp;";"</f>
@@ -7812,10 +7850,10 @@
         <v/>
       </c>
       <c r="E30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H30" t="str">
         <f t="shared" si="15"/>
@@ -7828,7 +7866,7 @@
         <v/>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H31" t="str">
         <f t="shared" ref="H31" si="16">"ALS("&amp;F31&amp;"=z"&amp;";"""";"&amp;F31&amp;")"&amp;";"</f>
@@ -7841,10 +7879,10 @@
         <v/>
       </c>
       <c r="E32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H32" t="str">
         <f t="shared" ref="H32:H33" si="17">"ALS("&amp;F32&amp;"=z"&amp;";"""";"&amp;E32&amp;")"&amp;";"</f>
@@ -7857,10 +7895,10 @@
         <v/>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H33" t="str">
         <f t="shared" si="17"/>
@@ -7873,7 +7911,7 @@
         <v/>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H34" t="str">
         <f t="shared" ref="H34" si="18">"ALS("&amp;F34&amp;"=z"&amp;";"""";"&amp;F34&amp;")"&amp;";"</f>
@@ -7886,10 +7924,10 @@
         <v/>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F35" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H35" t="str">
         <f t="shared" ref="H35:H36" si="19">"ALS("&amp;F35&amp;"=z"&amp;";"""";"&amp;E35&amp;")"&amp;";"</f>
@@ -7902,10 +7940,10 @@
         <v/>
       </c>
       <c r="E36" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H36" t="str">
         <f t="shared" si="19"/>
@@ -7918,7 +7956,7 @@
         <v/>
       </c>
       <c r="F37" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H37" t="str">
         <f t="shared" ref="H37" si="20">"ALS("&amp;F37&amp;"=z"&amp;";"""";"&amp;F37&amp;")"&amp;";"</f>
@@ -7931,10 +7969,10 @@
         <v/>
       </c>
       <c r="E38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F38" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H38" t="str">
         <f t="shared" ref="H38:H39" si="21">"ALS("&amp;F38&amp;"=z"&amp;";"""";"&amp;E38&amp;")"&amp;";"</f>
@@ -7947,10 +7985,10 @@
         <v/>
       </c>
       <c r="E39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H39" t="str">
         <f t="shared" si="21"/>
@@ -7963,7 +8001,7 @@
         <v/>
       </c>
       <c r="F40" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H40" t="str">
         <f t="shared" ref="H40" si="22">"ALS("&amp;F40&amp;"=z"&amp;";"""";"&amp;F40&amp;")"&amp;";"</f>
@@ -7976,10 +8014,10 @@
         <v/>
       </c>
       <c r="E41" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F41" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H41" t="str">
         <f t="shared" ref="H41:H42" si="23">"ALS("&amp;F41&amp;"=z"&amp;";"""";"&amp;E41&amp;")"&amp;";"</f>
@@ -7992,10 +8030,10 @@
         <v/>
       </c>
       <c r="E42" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H42" t="str">
         <f t="shared" si="23"/>
@@ -8008,7 +8046,7 @@
         <v/>
       </c>
       <c r="F43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" ref="H43" si="24">"ALS("&amp;F43&amp;"=z"&amp;";"""";"&amp;F43&amp;")"&amp;";"</f>
@@ -8021,10 +8059,10 @@
         <v/>
       </c>
       <c r="E44" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H44" t="str">
         <f t="shared" ref="H44:H45" si="25">"ALS("&amp;F44&amp;"=z"&amp;";"""";"&amp;E44&amp;")"&amp;";"</f>
@@ -8037,10 +8075,10 @@
         <v/>
       </c>
       <c r="E45" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H45" t="str">
         <f t="shared" si="25"/>
@@ -8053,7 +8091,7 @@
         <v/>
       </c>
       <c r="F46" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H46" t="str">
         <f t="shared" ref="H46" si="26">"ALS("&amp;F46&amp;"=z"&amp;";"""";"&amp;F46&amp;")"&amp;";"</f>
@@ -8066,10 +8104,10 @@
         <v/>
       </c>
       <c r="E47" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H47" t="str">
         <f t="shared" ref="H47:H48" si="27">"ALS("&amp;F47&amp;"=z"&amp;";"""";"&amp;E47&amp;")"&amp;";"</f>
@@ -8082,10 +8120,10 @@
         <v/>
       </c>
       <c r="E48" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H48" t="str">
         <f t="shared" si="27"/>
@@ -8098,7 +8136,7 @@
         <v/>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H49" t="str">
         <f t="shared" ref="H49" si="28">"ALS("&amp;F49&amp;"=z"&amp;";"""";"&amp;F49&amp;")"&amp;";"</f>
@@ -8111,10 +8149,10 @@
         <v/>
       </c>
       <c r="E50" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H50" t="str">
         <f t="shared" ref="H50:H51" si="29">"ALS("&amp;F50&amp;"=z"&amp;";"""";"&amp;E50&amp;")"&amp;";"</f>
@@ -8127,10 +8165,10 @@
         <v/>
       </c>
       <c r="E51" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H51" t="str">
         <f t="shared" si="29"/>
@@ -8143,7 +8181,7 @@
         <v/>
       </c>
       <c r="F52" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H52" t="str">
         <f t="shared" ref="H52" si="30">"ALS("&amp;F52&amp;"=z"&amp;";"""";"&amp;F52&amp;")"&amp;";"</f>
@@ -8156,10 +8194,10 @@
         <v/>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F53" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H53" t="str">
         <f t="shared" ref="H53:H54" si="31">"ALS("&amp;F53&amp;"=z"&amp;";"""";"&amp;E53&amp;")"&amp;";"</f>
@@ -8172,10 +8210,10 @@
         <v/>
       </c>
       <c r="E54" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H54" t="str">
         <f t="shared" si="31"/>
@@ -8188,7 +8226,7 @@
         <v/>
       </c>
       <c r="F55" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H55" t="str">
         <f t="shared" ref="H55" si="32">"ALS("&amp;F55&amp;"=z"&amp;";"""";"&amp;F55&amp;")"&amp;";"</f>
@@ -8197,10 +8235,10 @@
     </row>
     <row r="56" spans="1:8">
       <c r="E56" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F56" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H56" t="str">
         <f t="shared" ref="H56:H57" si="33">"ALS("&amp;F56&amp;"=z"&amp;";"""";"&amp;E56&amp;")"&amp;";"</f>
@@ -8209,10 +8247,10 @@
     </row>
     <row r="57" spans="1:8">
       <c r="E57" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H57" t="str">
         <f t="shared" si="33"/>
@@ -8221,7 +8259,7 @@
     </row>
     <row r="58" spans="1:8">
       <c r="F58" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H58" t="str">
         <f t="shared" ref="H58" si="34">"ALS("&amp;F58&amp;"=z"&amp;";"""";"&amp;F58&amp;")"&amp;";"</f>
@@ -8230,10 +8268,10 @@
     </row>
     <row r="59" spans="1:8">
       <c r="E59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H59" t="str">
         <f t="shared" ref="H59:H60" si="35">"ALS("&amp;F59&amp;"=z"&amp;";"""";"&amp;E59&amp;")"&amp;";"</f>
@@ -8242,10 +8280,10 @@
     </row>
     <row r="60" spans="1:8">
       <c r="E60" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H60" t="str">
         <f t="shared" si="35"/>
@@ -8254,7 +8292,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="F61" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H61" t="str">
         <f t="shared" ref="H61" si="36">"ALS("&amp;F61&amp;"=z"&amp;";"""";"&amp;F61&amp;")"&amp;";"</f>
@@ -8263,10 +8301,10 @@
     </row>
     <row r="62" spans="1:8">
       <c r="E62" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F62" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H62" t="str">
         <f t="shared" ref="H62:H63" si="37">"ALS("&amp;F62&amp;"=z"&amp;";"""";"&amp;E62&amp;")"&amp;";"</f>
@@ -8275,10 +8313,10 @@
     </row>
     <row r="63" spans="1:8">
       <c r="E63" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H63" t="str">
         <f t="shared" si="37"/>
@@ -8287,7 +8325,7 @@
     </row>
     <row r="64" spans="1:8">
       <c r="F64" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H64" t="str">
         <f t="shared" ref="H64" si="38">"ALS("&amp;F64&amp;"=z"&amp;";"""";"&amp;F64&amp;")"&amp;";"</f>
@@ -8296,10 +8334,10 @@
     </row>
     <row r="65" spans="5:8">
       <c r="E65" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H65" t="str">
         <f t="shared" ref="H65:H66" si="39">"ALS("&amp;F65&amp;"=z"&amp;";"""";"&amp;E65&amp;")"&amp;";"</f>
@@ -8308,10 +8346,10 @@
     </row>
     <row r="66" spans="5:8">
       <c r="E66" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H66" t="str">
         <f t="shared" si="39"/>
@@ -8320,7 +8358,7 @@
     </row>
     <row r="67" spans="5:8">
       <c r="F67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H67" t="str">
         <f t="shared" ref="H67" si="40">"ALS("&amp;F67&amp;"=z"&amp;";"""";"&amp;F67&amp;")"&amp;";"</f>
@@ -8329,10 +8367,10 @@
     </row>
     <row r="68" spans="5:8">
       <c r="E68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H68" t="str">
         <f t="shared" ref="H68:H69" si="41">"ALS("&amp;F68&amp;"=z"&amp;";"""";"&amp;E68&amp;")"&amp;";"</f>
@@ -8341,10 +8379,10 @@
     </row>
     <row r="69" spans="5:8">
       <c r="E69" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H69" t="str">
         <f t="shared" si="41"/>
@@ -8353,7 +8391,7 @@
     </row>
     <row r="70" spans="5:8">
       <c r="F70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="H70" t="str">
         <f t="shared" ref="H70" si="42">"ALS("&amp;F70&amp;"=z"&amp;";"""";"&amp;F70&amp;")"&amp;";"</f>
@@ -8362,10 +8400,10 @@
     </row>
     <row r="71" spans="5:8">
       <c r="E71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H71" t="str">
         <f t="shared" ref="H71:H72" si="43">"ALS("&amp;F71&amp;"=z"&amp;";"""";"&amp;E71&amp;")"&amp;";"</f>
@@ -8374,10 +8412,10 @@
     </row>
     <row r="72" spans="5:8">
       <c r="E72" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H72" t="str">
         <f t="shared" si="43"/>
@@ -8386,7 +8424,7 @@
     </row>
     <row r="73" spans="5:8">
       <c r="F73" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H73" t="str">
         <f t="shared" ref="H73" si="44">"ALS("&amp;F73&amp;"=z"&amp;";"""";"&amp;F73&amp;")"&amp;";"</f>
@@ -8395,10 +8433,10 @@
     </row>
     <row r="74" spans="5:8">
       <c r="E74" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F74" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H74" t="str">
         <f t="shared" ref="H74:H75" si="45">"ALS("&amp;F74&amp;"=z"&amp;";"""";"&amp;E74&amp;")"&amp;";"</f>
@@ -8407,10 +8445,10 @@
     </row>
     <row r="75" spans="5:8">
       <c r="E75" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F75" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H75" t="str">
         <f t="shared" si="45"/>
@@ -8419,7 +8457,7 @@
     </row>
     <row r="76" spans="5:8">
       <c r="F76" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H76" t="str">
         <f t="shared" ref="H76" si="46">"ALS("&amp;F76&amp;"=z"&amp;";"""";"&amp;F76&amp;")"&amp;";"</f>
@@ -8428,10 +8466,10 @@
     </row>
     <row r="77" spans="5:8">
       <c r="E77" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H77" t="str">
         <f t="shared" ref="H77:H78" si="47">"ALS("&amp;F77&amp;"=z"&amp;";"""";"&amp;E77&amp;")"&amp;";"</f>
@@ -8440,10 +8478,10 @@
     </row>
     <row r="78" spans="5:8">
       <c r="E78" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H78" t="str">
         <f t="shared" si="47"/>
@@ -8452,7 +8490,7 @@
     </row>
     <row r="79" spans="5:8">
       <c r="F79" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="H79" t="str">
         <f t="shared" ref="H79" si="48">"ALS("&amp;F79&amp;"=z"&amp;";"""";"&amp;F79&amp;")"&amp;";"</f>
@@ -8461,10 +8499,10 @@
     </row>
     <row r="80" spans="5:8">
       <c r="E80" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F80" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H80" t="str">
         <f t="shared" ref="H80:H81" si="49">"ALS("&amp;F80&amp;"=z"&amp;";"""";"&amp;E80&amp;")"&amp;";"</f>
@@ -8473,10 +8511,10 @@
     </row>
     <row r="81" spans="5:8">
       <c r="E81" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H81" t="str">
         <f t="shared" si="49"/>
@@ -8485,7 +8523,7 @@
     </row>
     <row r="82" spans="5:8">
       <c r="F82" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H82" t="str">
         <f t="shared" ref="H82" si="50">"ALS("&amp;F82&amp;"=z"&amp;";"""";"&amp;F82&amp;")"&amp;";"</f>
@@ -8494,10 +8532,10 @@
     </row>
     <row r="83" spans="5:8">
       <c r="E83" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F83" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H83" t="str">
         <f t="shared" ref="H83:H84" si="51">"ALS("&amp;F83&amp;"=z"&amp;";"""";"&amp;E83&amp;")"&amp;";"</f>
@@ -8506,10 +8544,10 @@
     </row>
     <row r="84" spans="5:8">
       <c r="E84" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H84" t="str">
         <f t="shared" si="51"/>
@@ -8518,7 +8556,7 @@
     </row>
     <row r="85" spans="5:8">
       <c r="F85" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H85" t="str">
         <f t="shared" ref="H85" si="52">"ALS("&amp;F85&amp;"=z"&amp;";"""";"&amp;F85&amp;")"&amp;";"</f>
@@ -8527,10 +8565,10 @@
     </row>
     <row r="86" spans="5:8">
       <c r="E86" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H86" t="str">
         <f t="shared" ref="H86:H87" si="53">"ALS("&amp;F86&amp;"=z"&amp;";"""";"&amp;E86&amp;")"&amp;";"</f>
@@ -8539,10 +8577,10 @@
     </row>
     <row r="87" spans="5:8">
       <c r="E87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H87" t="str">
         <f t="shared" si="53"/>
@@ -8551,7 +8589,7 @@
     </row>
     <row r="88" spans="5:8">
       <c r="F88" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H88" t="str">
         <f t="shared" ref="H88" si="54">"ALS("&amp;F88&amp;"=z"&amp;";"""";"&amp;F88&amp;")"&amp;";"</f>
@@ -8560,10 +8598,10 @@
     </row>
     <row r="89" spans="5:8">
       <c r="E89" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F89" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H89" t="str">
         <f t="shared" ref="H89:H90" si="55">"ALS("&amp;F89&amp;"=z"&amp;";"""";"&amp;E89&amp;")"&amp;";"</f>
@@ -8572,10 +8610,10 @@
     </row>
     <row r="90" spans="5:8">
       <c r="E90" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F90" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H90" t="str">
         <f t="shared" si="55"/>
@@ -8584,7 +8622,7 @@
     </row>
     <row r="91" spans="5:8">
       <c r="F91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H91" t="str">
         <f t="shared" ref="H91" si="56">"ALS("&amp;F91&amp;"=z"&amp;";"""";"&amp;F91&amp;")"&amp;";"</f>
@@ -8593,10 +8631,10 @@
     </row>
     <row r="92" spans="5:8">
       <c r="E92" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H92" t="str">
         <f t="shared" ref="H92:H93" si="57">"ALS("&amp;F92&amp;"=z"&amp;";"""";"&amp;E92&amp;")"&amp;";"</f>
@@ -8605,10 +8643,10 @@
     </row>
     <row r="93" spans="5:8">
       <c r="E93" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H93" t="str">
         <f t="shared" si="57"/>
@@ -8617,7 +8655,7 @@
     </row>
     <row r="94" spans="5:8">
       <c r="F94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H94" t="str">
         <f t="shared" ref="H94" si="58">"ALS("&amp;F94&amp;"=z"&amp;";"""";"&amp;F94&amp;")"&amp;";"</f>
@@ -8626,10 +8664,10 @@
     </row>
     <row r="95" spans="5:8">
       <c r="E95" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F95" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H95" t="str">
         <f t="shared" ref="H95:H96" si="59">"ALS("&amp;F95&amp;"=z"&amp;";"""";"&amp;E95&amp;")"&amp;";"</f>
@@ -8638,10 +8676,10 @@
     </row>
     <row r="96" spans="5:8">
       <c r="E96" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H96" t="str">
         <f t="shared" si="59"/>
@@ -8650,7 +8688,7 @@
     </row>
     <row r="97" spans="5:8">
       <c r="F97" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H97" t="str">
         <f t="shared" ref="H97" si="60">"ALS("&amp;F97&amp;"=z"&amp;";"""";"&amp;F97&amp;")"&amp;";"</f>
@@ -8659,10 +8697,10 @@
     </row>
     <row r="98" spans="5:8">
       <c r="E98" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F98" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H98" t="str">
         <f t="shared" ref="H98:H99" si="61">"ALS("&amp;F98&amp;"=z"&amp;";"""";"&amp;E98&amp;")"&amp;";"</f>
@@ -8671,10 +8709,10 @@
     </row>
     <row r="99" spans="5:8">
       <c r="E99" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F99" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H99" t="str">
         <f t="shared" si="61"/>
@@ -8683,7 +8721,7 @@
     </row>
     <row r="100" spans="5:8">
       <c r="F100" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H100" t="str">
         <f t="shared" ref="H100" si="62">"ALS("&amp;F100&amp;"=z"&amp;";"""";"&amp;F100&amp;")"&amp;";"</f>
@@ -8692,10 +8730,10 @@
     </row>
     <row r="101" spans="5:8">
       <c r="E101" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H101" t="str">
         <f t="shared" ref="H101:H102" si="63">"ALS("&amp;F101&amp;"=z"&amp;";"""";"&amp;E101&amp;")"&amp;";"</f>
@@ -8704,10 +8742,10 @@
     </row>
     <row r="102" spans="5:8">
       <c r="E102" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H102" t="str">
         <f t="shared" si="63"/>
@@ -8716,7 +8754,7 @@
     </row>
     <row r="103" spans="5:8">
       <c r="F103" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H103" t="str">
         <f t="shared" ref="H103" si="64">"ALS("&amp;F103&amp;"=z"&amp;";"""";"&amp;F103&amp;")"&amp;";"</f>
@@ -8725,10 +8763,10 @@
     </row>
     <row r="104" spans="5:8">
       <c r="E104" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F104" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H104" t="str">
         <f t="shared" ref="H104:H105" si="65">"ALS("&amp;F104&amp;"=z"&amp;";"""";"&amp;E104&amp;")"&amp;";"</f>
@@ -8737,10 +8775,10 @@
     </row>
     <row r="105" spans="5:8">
       <c r="E105" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F105" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H105" t="str">
         <f t="shared" si="65"/>
@@ -8749,7 +8787,7 @@
     </row>
     <row r="106" spans="5:8">
       <c r="F106" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H106" t="str">
         <f t="shared" ref="H106" si="66">"ALS("&amp;F106&amp;"=z"&amp;";"""";"&amp;F106&amp;")"&amp;";"</f>
@@ -8758,10 +8796,10 @@
     </row>
     <row r="107" spans="5:8">
       <c r="E107" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F107" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H107" t="str">
         <f t="shared" ref="H107:H108" si="67">"ALS("&amp;F107&amp;"=z"&amp;";"""";"&amp;E107&amp;")"&amp;";"</f>
@@ -8770,10 +8808,10 @@
     </row>
     <row r="108" spans="5:8">
       <c r="E108" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H108" t="str">
         <f t="shared" si="67"/>
@@ -8782,7 +8820,7 @@
     </row>
     <row r="109" spans="5:8">
       <c r="F109" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="H109" t="str">
         <f t="shared" ref="H109" si="68">"ALS("&amp;F109&amp;"=z"&amp;";"""";"&amp;F109&amp;")"&amp;";"</f>
@@ -8791,10 +8829,10 @@
     </row>
     <row r="110" spans="5:8">
       <c r="E110" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F110" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H110" t="str">
         <f t="shared" ref="H110:H111" si="69">"ALS("&amp;F110&amp;"=z"&amp;";"""";"&amp;E110&amp;")"&amp;";"</f>
@@ -8803,10 +8841,10 @@
     </row>
     <row r="111" spans="5:8">
       <c r="E111" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F111" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H111" t="str">
         <f t="shared" si="69"/>
@@ -8815,7 +8853,7 @@
     </row>
     <row r="112" spans="5:8">
       <c r="F112" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H112" t="str">
         <f t="shared" ref="H112" si="70">"ALS("&amp;F112&amp;"=z"&amp;";"""";"&amp;F112&amp;")"&amp;";"</f>
@@ -8824,10 +8862,10 @@
     </row>
     <row r="113" spans="5:8">
       <c r="E113" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="F113" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H113" t="str">
         <f t="shared" ref="H113:H114" si="71">"ALS("&amp;F113&amp;"=z"&amp;";"""";"&amp;E113&amp;")"&amp;";"</f>
@@ -8836,10 +8874,10 @@
     </row>
     <row r="114" spans="5:8">
       <c r="E114" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F114" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H114" t="str">
         <f t="shared" si="71"/>
@@ -8848,7 +8886,7 @@
     </row>
     <row r="115" spans="5:8">
       <c r="F115" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H115" t="str">
         <f t="shared" ref="H115" si="72">"ALS("&amp;F115&amp;"=z"&amp;";"""";"&amp;F115&amp;")"&amp;";"</f>

--- a/SymbolSheetSecure.xlsx
+++ b/SymbolSheetSecure.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johanfit/CloudStation/School/latex/Symbollist-maintain/symbollist-maintain-excel/Symbollist-maintain/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC784AC-FA3E-8B4F-9632-EA9B6FD4ADF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC942E5-47E5-2D48-92F6-34E6B4276027}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{C3287152-8E58-F540-9977-43335A6FB218}"/>
   </bookViews>
@@ -1707,11 +1707,12 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData/>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
